--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -19,25 +19,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>CNC Speed (in/s)</t>
-  </si>
-  <si>
-    <t>Wire Speed (in/s)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Avg Droplet Spacing (us)</t>
   </si>
   <si>
-    <t>Add note for describing why this is important.</t>
+    <t>CNC Speed (in/min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire Speed (in/s) </t>
+  </si>
+  <si>
+    <t>Calibration values for each CNC speed</t>
+  </si>
+  <si>
+    <t>Current setting: B</t>
+  </si>
+  <si>
+    <t>Current setting: C</t>
+  </si>
+  <si>
+    <t>Current setting: D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +61,36 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -85,12 +124,238 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -98,12 +363,107 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -113,10 +473,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -127,34 +485,77 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,260 +885,1339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="G5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>28369</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>20836</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2</v>
+      </c>
+      <c r="K6" s="21">
+        <v>15748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>48340</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21">
+        <v>25157</v>
+      </c>
+      <c r="I7" s="19">
+        <v>5</v>
+      </c>
+      <c r="J7" s="20">
+        <v>3</v>
+      </c>
+      <c r="K7" s="21">
+        <v>15686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>37383</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="20">
+        <v>4</v>
+      </c>
+      <c r="G8" s="21">
+        <v>33334</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="J8" s="20">
+        <v>4</v>
+      </c>
+      <c r="K8" s="21">
+        <v>16326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.85</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="21">
+        <v>36036</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5</v>
+      </c>
+      <c r="J9" s="20">
+        <v>5</v>
+      </c>
+      <c r="K9" s="21">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>68966</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="20">
+        <v>6</v>
+      </c>
+      <c r="G10" s="21">
+        <v>28169</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" s="20">
+        <v>6</v>
+      </c>
+      <c r="K10" s="21">
+        <v>18320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>57145</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F11" s="20">
+        <v>7</v>
+      </c>
+      <c r="G11" s="21">
+        <v>31496</v>
+      </c>
+      <c r="I11" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J11" s="20">
+        <v>7</v>
+      </c>
+      <c r="K11" s="21">
+        <v>17316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" thickBot="1">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>51945</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23">
+        <v>8</v>
+      </c>
+      <c r="G12" s="24">
+        <v>36689</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5.33</v>
+      </c>
+      <c r="J12" s="23">
+        <v>8</v>
+      </c>
+      <c r="K12" s="24">
+        <v>21679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>31081</v>
+      </c>
+      <c r="E13" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21">
+        <v>17488</v>
+      </c>
+      <c r="I13" s="19">
+        <v>7.11</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2</v>
+      </c>
+      <c r="K13" s="21">
+        <v>13939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>37041</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>20857</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
+      <c r="J14" s="20">
+        <v>3</v>
+      </c>
+      <c r="K14" s="21">
+        <v>14560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>20630</v>
+      </c>
+      <c r="E15" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4</v>
+      </c>
+      <c r="G15" s="21">
+        <v>20942</v>
+      </c>
+      <c r="I15" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="J15" s="20">
+        <v>4</v>
+      </c>
+      <c r="K15" s="21">
+        <v>15748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>37736</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21">
+        <v>20202</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6.42</v>
+      </c>
+      <c r="J16" s="20">
+        <v>5</v>
+      </c>
+      <c r="K16" s="21">
+        <v>11834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>35398</v>
+      </c>
+      <c r="E17" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F17" s="20">
+        <v>6</v>
+      </c>
+      <c r="G17" s="21">
+        <v>26490</v>
+      </c>
+      <c r="I17" s="19">
+        <v>7</v>
+      </c>
+      <c r="J17" s="20">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21">
+        <v>17021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9">
+        <v>34483</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F18" s="20">
+        <v>7</v>
+      </c>
+      <c r="G18" s="21">
+        <v>25806</v>
+      </c>
+      <c r="I18" s="19">
+        <v>6.38</v>
+      </c>
+      <c r="J18" s="20">
+        <v>7</v>
+      </c>
+      <c r="K18" s="21">
+        <v>14236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" thickBot="1">
+      <c r="A19" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45454</v>
+      </c>
+      <c r="E19" s="22">
+        <v>5.9</v>
+      </c>
+      <c r="F19" s="23">
+        <v>8</v>
+      </c>
+      <c r="G19" s="24">
+        <v>22865</v>
+      </c>
+      <c r="I19" s="22">
+        <v>6.2</v>
+      </c>
+      <c r="J19" s="23">
+        <v>8</v>
+      </c>
+      <c r="K19" s="24">
+        <v>9553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>21052</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>16529</v>
+      </c>
+      <c r="I20" s="19">
+        <v>8</v>
+      </c>
+      <c r="J20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="21">
+        <v>11561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>27245</v>
+      </c>
+      <c r="E21" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="F21" s="20">
+        <v>3</v>
+      </c>
+      <c r="G21" s="21">
+        <v>19837</v>
+      </c>
+      <c r="I21" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="J21" s="20">
+        <v>3</v>
+      </c>
+      <c r="K21" s="21">
+        <v>11911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="28">
+        <v>37383</v>
+      </c>
+      <c r="E22" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="F22" s="20">
+        <v>4</v>
+      </c>
+      <c r="G22" s="21">
+        <v>19900</v>
+      </c>
+      <c r="I22" s="19">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J22" s="20">
+        <v>4</v>
+      </c>
+      <c r="K22" s="21">
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
+        <v>36697</v>
+      </c>
+      <c r="E23" s="19">
+        <v>6.19</v>
+      </c>
+      <c r="F23" s="20">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21">
+        <v>13347</v>
+      </c>
+      <c r="I23" s="19">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J23" s="20">
+        <v>5</v>
+      </c>
+      <c r="K23" s="21">
+        <v>11368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>47619</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6.69</v>
+      </c>
+      <c r="F24" s="20">
+        <v>6</v>
+      </c>
+      <c r="G24" s="21">
+        <v>21858</v>
+      </c>
+      <c r="I24" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="J24" s="20">
+        <v>6</v>
+      </c>
+      <c r="K24" s="21">
+        <v>10942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <v>37037</v>
+      </c>
+      <c r="E25" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>7</v>
+      </c>
+      <c r="G25" s="21">
+        <v>22728</v>
+      </c>
+      <c r="I25" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="J25" s="20">
+        <v>7</v>
+      </c>
+      <c r="K25" s="21">
+        <v>12358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickBot="1">
+      <c r="A26" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
+        <v>41237</v>
+      </c>
+      <c r="E26" s="25">
+        <v>7.16</v>
+      </c>
+      <c r="F26" s="26">
+        <v>8</v>
+      </c>
+      <c r="G26" s="27">
+        <v>21621</v>
+      </c>
+      <c r="I26" s="22">
+        <v>8.18</v>
+      </c>
+      <c r="J26" s="23">
+        <v>8</v>
+      </c>
+      <c r="K26" s="24">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5">
+        <v>6.98</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>27973</v>
+      </c>
+      <c r="E27" s="16">
+        <v>8.02</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>12923</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>25055</v>
+      </c>
+      <c r="E28" s="19">
+        <v>8.61</v>
+      </c>
+      <c r="F28" s="20">
+        <v>3</v>
+      </c>
+      <c r="G28" s="21">
+        <v>14778</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20">
+        <v>3</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9">
+        <v>28777</v>
+      </c>
+      <c r="E29" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="F29" s="20">
+        <v>4</v>
+      </c>
+      <c r="G29" s="21">
+        <v>14760</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20">
+        <v>4</v>
+      </c>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>29851</v>
+      </c>
+      <c r="E30" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="F30" s="20">
+        <v>5</v>
+      </c>
+      <c r="G30" s="21">
+        <v>18779</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20">
+        <v>5</v>
+      </c>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <v>40861</v>
+      </c>
+      <c r="E31" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F31" s="20">
+        <v>6</v>
+      </c>
+      <c r="G31" s="21">
+        <v>16877</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <v>6</v>
+      </c>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8">
+        <v>6.97</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9">
+        <v>31008</v>
+      </c>
+      <c r="E32" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="F32" s="20">
+        <v>7</v>
+      </c>
+      <c r="G32" s="21">
+        <v>16529</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
+        <v>7</v>
+      </c>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="16" thickBot="1">
+      <c r="A33" s="10">
+        <v>6.95</v>
+      </c>
+      <c r="B33" s="11">
+        <v>8</v>
+      </c>
+      <c r="C33" s="12">
+        <v>29412</v>
+      </c>
+      <c r="E33" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F33" s="23">
+        <v>8</v>
+      </c>
+      <c r="G33" s="24">
+        <v>16461</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23">
+        <v>8</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>18100</v>
+      </c>
+      <c r="E34" s="19">
+        <v>10.24</v>
+      </c>
+      <c r="F34" s="20">
+        <v>2</v>
+      </c>
+      <c r="G34" s="21">
+        <v>13289</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20">
+        <v>2</v>
+      </c>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>22519</v>
+      </c>
+      <c r="E35" s="19">
+        <v>9.94</v>
+      </c>
+      <c r="F35" s="20">
+        <v>3</v>
+      </c>
+      <c r="G35" s="21">
+        <v>15567</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20">
+        <v>3</v>
+      </c>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="8">
+        <v>8.48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <v>28169</v>
+      </c>
+      <c r="E36" s="19">
+        <v>10.4</v>
+      </c>
+      <c r="F36" s="20">
+        <v>4</v>
+      </c>
+      <c r="G36" s="21">
+        <v>15385</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20">
+        <v>4</v>
+      </c>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>27027</v>
+      </c>
+      <c r="E37" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="F37" s="20">
+        <v>5</v>
+      </c>
+      <c r="G37" s="21">
+        <v>16736</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20">
+        <v>5</v>
+      </c>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>32088</v>
+      </c>
+      <c r="E38" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="F38" s="20">
+        <v>6</v>
+      </c>
+      <c r="G38" s="21">
+        <v>13349</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20">
+        <v>6</v>
+      </c>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="8">
+        <v>8.58</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9">
+        <v>25974</v>
+      </c>
+      <c r="E39" s="19">
+        <v>10.5</v>
+      </c>
+      <c r="F39" s="20">
+        <v>7</v>
+      </c>
+      <c r="G39" s="21">
+        <v>17021</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20">
+        <v>7</v>
+      </c>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="16" thickBot="1">
+      <c r="A40" s="10">
+        <v>8.15</v>
+      </c>
+      <c r="B40" s="11">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12">
+        <v>26845</v>
+      </c>
+      <c r="E40" s="22">
+        <v>10.3</v>
+      </c>
+      <c r="F40" s="23">
+        <v>8</v>
+      </c>
+      <c r="G40" s="24">
+        <v>16441</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23">
+        <v>8</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="5">
+        <v>9.01</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>20217</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20">
+        <v>2</v>
+      </c>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="8">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9">
+        <v>19913</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20">
+        <v>3</v>
+      </c>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="8">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9">
+        <v>19624</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20">
+        <v>4</v>
+      </c>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="8">
+        <v>9.24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="9">
+        <v>28369</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20">
+        <v>5</v>
+      </c>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9">
+        <v>26478</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20">
+        <v>6</v>
+      </c>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="8">
+        <v>8.23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="9">
+        <v>23391</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20">
+        <v>7</v>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="16" thickBot="1">
+      <c r="A47" s="10">
+        <v>9.65</v>
+      </c>
+      <c r="B47" s="11">
+        <v>8</v>
+      </c>
+      <c r="C47" s="12">
+        <v>30535</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23">
+        <v>8</v>
+      </c>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20">
+        <v>2</v>
+      </c>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20">
+        <v>3</v>
+      </c>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="19"/>
+      <c r="F50" s="20">
+        <v>4</v>
+      </c>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="19"/>
+      <c r="F51" s="20">
+        <v>5</v>
+      </c>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="19"/>
+      <c r="F52" s="20">
+        <v>6</v>
+      </c>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="19"/>
+      <c r="F53" s="20">
+        <v>7</v>
+      </c>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="5:7" ht="16" thickBot="1">
+      <c r="E54" s="22"/>
+      <c r="F54" s="23">
+        <v>8</v>
+      </c>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" s="19"/>
+      <c r="F55" s="20">
+        <v>2</v>
+      </c>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="19"/>
+      <c r="F56" s="20">
+        <v>3</v>
+      </c>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" s="19"/>
+      <c r="F57" s="20">
+        <v>4</v>
+      </c>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="19"/>
+      <c r="F58" s="20">
+        <v>5</v>
+      </c>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" s="19"/>
+      <c r="F59" s="20">
+        <v>6</v>
+      </c>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" s="19"/>
+      <c r="F60" s="20">
+        <v>7</v>
+      </c>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="5:7" ht="16" thickBot="1">
+      <c r="E61" s="22"/>
+      <c r="F61" s="23">
+        <v>8</v>
+      </c>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="19"/>
+      <c r="F62" s="20">
+        <v>2</v>
+      </c>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" s="19"/>
+      <c r="F63" s="20">
+        <v>3</v>
+      </c>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="19"/>
+      <c r="F64" s="20">
+        <v>4</v>
+      </c>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="19"/>
+      <c r="F65" s="20">
+        <v>5</v>
+      </c>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="19"/>
+      <c r="F66" s="20">
+        <v>6</v>
+      </c>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="19"/>
+      <c r="F67" s="20">
+        <v>7</v>
+      </c>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="5:7" ht="16" thickBot="1">
+      <c r="E68" s="22"/>
+      <c r="F68" s="23">
+        <v>8</v>
+      </c>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="19"/>
+      <c r="F69" s="20">
+        <v>2</v>
+      </c>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="19"/>
+      <c r="F70" s="20">
+        <v>3</v>
+      </c>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="19"/>
+      <c r="F71" s="20">
+        <v>4</v>
+      </c>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="19"/>
+      <c r="F72" s="20">
+        <v>5</v>
+      </c>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" s="19"/>
+      <c r="F73" s="20">
+        <v>6</v>
+      </c>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" s="19"/>
+      <c r="F74" s="20">
+        <v>7</v>
+      </c>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="5:7" ht="16" thickBot="1">
+      <c r="E75" s="22"/>
+      <c r="F75" s="23">
+        <v>8</v>
+      </c>
+      <c r="G75" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Avg Droplet Spacing (us)</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Plate 5</t>
+  </si>
+  <si>
+    <t>Current setting: B</t>
+  </si>
+  <si>
+    <t>Plate 6</t>
   </si>
 </sst>
 </file>
@@ -345,8 +351,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,7 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -418,6 +426,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -434,6 +443,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -784,32 +794,38 @@
     <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" thickBot="1">
+    <row r="4" spans="1:24" ht="16" thickBot="1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21" thickBot="1">
+    <row r="5" spans="1:24" ht="21" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -819,13 +835,13 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -837,1991 +853,2315 @@
       <c r="K5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8">
+      <c r="M5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8">
+        <v>2</v>
+      </c>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="4">
-        <v>4.21</v>
+        <v>2.57</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="6">
+        <v>12903</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
         <v>19047</v>
       </c>
-      <c r="E6" s="7">
+      <c r="I6" s="7">
         <v>3.48</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>20014</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5.34</v>
       </c>
       <c r="J6" s="8">
         <v>2</v>
       </c>
       <c r="K6" s="9">
+        <v>20014</v>
+      </c>
+      <c r="M6" s="7">
+        <v>5.34</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2</v>
+      </c>
+      <c r="O6" s="9">
         <v>12658</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8">
+      <c r="V6" s="7"/>
+      <c r="W6" s="8">
         <v>3</v>
       </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="7">
-        <v>4.04</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
       </c>
       <c r="C7" s="9">
-        <v>20619</v>
+        <v>12195</v>
       </c>
       <c r="E7" s="7">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
       </c>
       <c r="G7" s="9">
-        <v>23121</v>
+        <v>20619</v>
       </c>
       <c r="I7" s="7">
-        <v>4.9000000000000004</v>
+        <v>3.47</v>
       </c>
       <c r="J7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="9">
+        <v>23121</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3</v>
+      </c>
+      <c r="O7" s="9">
         <v>14053</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8">
-        <v>4</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="V7" s="7"/>
+      <c r="W7" s="8">
+        <v>4</v>
+      </c>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>13559</v>
+      </c>
+      <c r="E8" s="7">
         <v>3.88</v>
       </c>
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
         <v>22857</v>
       </c>
-      <c r="E8" s="7">
+      <c r="I8" s="7">
         <v>3.3</v>
       </c>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="J8" s="8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
         <v>23530</v>
       </c>
-      <c r="I8" s="7">
+      <c r="M8" s="7">
         <v>4.97</v>
       </c>
-      <c r="J8" s="8">
-        <v>4</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="N8" s="8">
+        <v>4</v>
+      </c>
+      <c r="O8" s="9">
         <v>12317</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8">
-        <v>5</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="V8" s="7"/>
+      <c r="W8" s="8">
+        <v>5</v>
+      </c>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>15873</v>
+      </c>
+      <c r="E9" s="7">
         <v>3.98</v>
       </c>
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
         <v>21978</v>
       </c>
-      <c r="E9" s="7">
+      <c r="I9" s="7">
         <v>3.3</v>
       </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
         <v>27398</v>
       </c>
-      <c r="I9" s="7">
+      <c r="M9" s="7">
         <v>5.18</v>
       </c>
-      <c r="J9" s="8">
-        <v>5</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
+      <c r="O9" s="9">
         <v>16461</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8">
-        <v>6</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="V9" s="7"/>
+      <c r="W9" s="8">
+        <v>6</v>
+      </c>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>15269</v>
+      </c>
+      <c r="E10" s="7">
         <v>4.1399999999999997</v>
       </c>
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
         <v>20833</v>
       </c>
-      <c r="E10" s="7">
+      <c r="I10" s="7">
         <v>2.96</v>
       </c>
-      <c r="F10" s="8">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9">
         <v>26845</v>
       </c>
-      <c r="I10" s="7">
+      <c r="M10" s="7">
         <v>4.53</v>
       </c>
-      <c r="J10" s="8">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="N10" s="8">
+        <v>6</v>
+      </c>
+      <c r="O10" s="9">
         <v>11019</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8">
+      <c r="V10" s="7"/>
+      <c r="W10" s="8">
         <v>7</v>
       </c>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" ht="16" thickBot="1">
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" ht="16" thickBot="1">
       <c r="A11" s="7">
-        <v>3.88</v>
+        <v>2.62</v>
       </c>
       <c r="B11" s="8">
         <v>7</v>
       </c>
       <c r="C11" s="9">
-        <v>20943</v>
+        <v>16953</v>
       </c>
       <c r="E11" s="7">
-        <v>3.39</v>
+        <v>3.88</v>
       </c>
       <c r="F11" s="8">
         <v>7</v>
       </c>
       <c r="G11" s="9">
-        <v>29646</v>
+        <v>20943</v>
       </c>
       <c r="I11" s="7">
-        <v>4.83</v>
+        <v>3.39</v>
       </c>
       <c r="J11" s="8">
         <v>7</v>
       </c>
       <c r="K11" s="9">
+        <v>29646</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4.83</v>
+      </c>
+      <c r="N11" s="8">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9">
         <v>79756</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11">
+      <c r="V11" s="10"/>
+      <c r="W11" s="11">
         <v>8</v>
       </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" thickBot="1">
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" thickBot="1">
       <c r="A12" s="10">
-        <v>3.95</v>
+        <v>2.63</v>
       </c>
       <c r="B12" s="11">
         <v>8</v>
       </c>
       <c r="C12" s="12">
-        <v>18872</v>
+        <v>14760</v>
       </c>
       <c r="E12" s="10">
-        <v>3.42</v>
+        <v>3.95</v>
       </c>
       <c r="F12" s="11">
         <v>8</v>
       </c>
       <c r="G12" s="12">
-        <v>30534</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>5</v>
+        <v>18872</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3.42</v>
       </c>
       <c r="J12" s="11">
         <v>8</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8">
+      <c r="K12" s="12">
+        <v>30534</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="11">
+        <v>8</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="7">
-        <v>6.02</v>
+        <v>3.38</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
       </c>
       <c r="C13" s="9">
-        <v>13119</v>
+        <v>10392</v>
       </c>
       <c r="E13" s="7">
-        <v>4.07</v>
+        <v>6.02</v>
       </c>
       <c r="F13" s="8">
         <v>2</v>
       </c>
       <c r="G13" s="9">
-        <v>24342</v>
+        <v>13119</v>
       </c>
       <c r="I13" s="7">
-        <v>7.12</v>
+        <v>4.07</v>
       </c>
       <c r="J13" s="8">
         <v>2</v>
       </c>
       <c r="K13" s="9">
+        <v>24342</v>
+      </c>
+      <c r="M13" s="7">
+        <v>7.12</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
         <v>9876</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8">
+      <c r="V13" s="7"/>
+      <c r="W13" s="8">
         <v>3</v>
       </c>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="7">
-        <v>5.81</v>
+        <v>3.27</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="9">
-        <v>15037</v>
+        <v>10309</v>
       </c>
       <c r="E14" s="7">
-        <v>4.1900000000000004</v>
+        <v>5.81</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
       </c>
       <c r="G14" s="9">
-        <v>19802</v>
+        <v>15037</v>
       </c>
       <c r="I14" s="7">
-        <v>6.93</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="9">
+        <v>19802</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6.93</v>
+      </c>
+      <c r="N14" s="8">
+        <v>3</v>
+      </c>
+      <c r="O14" s="9">
         <v>9959</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8">
-        <v>4</v>
-      </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="V14" s="7"/>
+      <c r="W14" s="8">
+        <v>4</v>
+      </c>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11396</v>
+      </c>
+      <c r="E15" s="7">
         <v>6.19</v>
       </c>
-      <c r="B15" s="8">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9">
         <v>14084</v>
       </c>
-      <c r="E15" s="7">
+      <c r="I15" s="7">
         <v>3.95</v>
       </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="J15" s="8">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9">
         <v>17467</v>
       </c>
-      <c r="I15" s="7">
+      <c r="M15" s="7">
         <v>7.22</v>
       </c>
-      <c r="J15" s="8">
-        <v>4</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="N15" s="8">
+        <v>4</v>
+      </c>
+      <c r="O15" s="9">
         <v>10315</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8">
-        <v>5</v>
-      </c>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="V15" s="7"/>
+      <c r="W15" s="8">
+        <v>5</v>
+      </c>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>12232</v>
+      </c>
+      <c r="E16" s="7">
         <v>6.06</v>
       </c>
-      <c r="B16" s="8">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
         <v>12539</v>
       </c>
-      <c r="E16" s="7">
+      <c r="I16" s="7">
         <v>3.86</v>
       </c>
-      <c r="F16" s="8">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
         <v>18868</v>
       </c>
-      <c r="I16" s="7">
+      <c r="M16" s="7">
         <v>6.82</v>
       </c>
-      <c r="J16" s="8">
-        <v>5</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
+      <c r="O16" s="9">
         <v>9527</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8">
-        <v>6</v>
-      </c>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="V16" s="7"/>
+      <c r="W16" s="8">
+        <v>6</v>
+      </c>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="7">
+        <v>3.39</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>11950</v>
+      </c>
+      <c r="E17" s="7">
         <v>5.71</v>
       </c>
-      <c r="B17" s="8">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="F17" s="8">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9">
         <v>15504</v>
       </c>
-      <c r="E17" s="7">
+      <c r="I17" s="7">
         <v>4.1399999999999997</v>
       </c>
-      <c r="F17" s="8">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="J17" s="8">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9">
         <v>14545</v>
       </c>
-      <c r="I17" s="7">
+      <c r="M17" s="7">
         <v>6.74</v>
       </c>
-      <c r="J17" s="8">
-        <v>6</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="N17" s="8">
+        <v>6</v>
+      </c>
+      <c r="O17" s="9">
         <v>9195</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8">
+      <c r="V17" s="7"/>
+      <c r="W17" s="8">
         <v>7</v>
       </c>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" ht="16" thickBot="1">
       <c r="A18" s="7">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="C18" s="9">
-        <v>10257</v>
+        <v>11954</v>
       </c>
       <c r="E18" s="7">
-        <v>4.09</v>
+        <v>5.6</v>
       </c>
       <c r="F18" s="8">
         <v>7</v>
       </c>
       <c r="G18" s="9">
-        <v>13333</v>
+        <v>10257</v>
       </c>
       <c r="I18" s="7">
-        <v>6.8</v>
+        <v>4.09</v>
       </c>
       <c r="J18" s="8">
         <v>7</v>
       </c>
       <c r="K18" s="9">
+        <v>13333</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="N18" s="8">
+        <v>7</v>
+      </c>
+      <c r="O18" s="9">
         <v>9227</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11">
+      <c r="V18" s="10"/>
+      <c r="W18" s="11">
         <v>8</v>
       </c>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" ht="16" thickBot="1">
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" ht="16" thickBot="1">
       <c r="A19" s="10">
-        <v>6.54</v>
+        <v>3.52</v>
       </c>
       <c r="B19" s="11">
         <v>8</v>
       </c>
       <c r="C19" s="12">
-        <v>17621</v>
+        <v>14100</v>
       </c>
       <c r="E19" s="10">
-        <v>3.99</v>
+        <v>6.54</v>
       </c>
       <c r="F19" s="11">
         <v>8</v>
       </c>
       <c r="G19" s="12">
-        <v>19900</v>
+        <v>17621</v>
       </c>
       <c r="I19" s="10">
-        <v>6.87</v>
+        <v>3.99</v>
       </c>
       <c r="J19" s="11">
         <v>8</v>
       </c>
       <c r="K19" s="12">
+        <v>19900</v>
+      </c>
+      <c r="M19" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="N19" s="11">
+        <v>8</v>
+      </c>
+      <c r="O19" s="12">
         <v>9852</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8">
+      <c r="V19" s="7"/>
+      <c r="W19" s="8">
         <v>2</v>
       </c>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="7">
-        <v>7.5</v>
+        <v>4.12</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="9">
-        <v>12820</v>
+        <v>9464</v>
       </c>
       <c r="E20" s="7">
-        <v>6.55</v>
+        <v>7.5</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
       </c>
       <c r="G20" s="9">
-        <v>11267</v>
+        <v>12820</v>
       </c>
       <c r="I20" s="7">
-        <v>9.3000000000000007</v>
+        <v>6.55</v>
       </c>
       <c r="J20" s="8">
         <v>2</v>
       </c>
       <c r="K20" s="9">
+        <v>11267</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2</v>
+      </c>
+      <c r="O20" s="9">
         <v>8948</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8">
+      <c r="V20" s="7"/>
+      <c r="W20" s="8">
         <v>3</v>
       </c>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="7">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="8">
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <v>14035</v>
+        <v>96662</v>
       </c>
       <c r="E21" s="7">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
       </c>
       <c r="G21" s="9">
-        <v>11173</v>
+        <v>14035</v>
       </c>
       <c r="I21" s="7">
-        <v>9.19</v>
+        <v>6.8</v>
       </c>
       <c r="J21" s="8">
         <v>3</v>
       </c>
       <c r="K21" s="9">
+        <v>11173</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3</v>
+      </c>
+      <c r="O21" s="9">
         <v>9091</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8">
-        <v>4</v>
-      </c>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="V21" s="7"/>
+      <c r="W21" s="8">
+        <v>4</v>
+      </c>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="7">
         <v>7.61</v>
       </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="F22" s="8">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9">
         <v>14760</v>
       </c>
-      <c r="E22" s="7">
+      <c r="I22" s="7">
         <v>7.23</v>
       </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="J22" s="8">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9">
         <v>12012</v>
       </c>
-      <c r="I22" s="7">
+      <c r="M22" s="7">
         <v>9.42</v>
       </c>
-      <c r="J22" s="8">
-        <v>4</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="N22" s="8">
+        <v>4</v>
+      </c>
+      <c r="O22" s="9">
         <v>9599</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8">
-        <v>5</v>
-      </c>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="V22" s="7"/>
+      <c r="W22" s="8">
+        <v>5</v>
+      </c>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10256</v>
+      </c>
+      <c r="E23" s="7">
         <v>7.67</v>
       </c>
-      <c r="B23" s="8">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9">
         <v>15267</v>
       </c>
-      <c r="E23" s="7">
+      <c r="I23" s="7">
         <v>6.49</v>
       </c>
-      <c r="F23" s="8">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
         <v>9788</v>
       </c>
-      <c r="I23" s="7">
+      <c r="M23" s="7">
         <v>9.26</v>
       </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="O23" s="9">
         <v>9466</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8">
-        <v>6</v>
-      </c>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="V23" s="7"/>
+      <c r="W23" s="8">
+        <v>6</v>
+      </c>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10816</v>
+      </c>
+      <c r="E24" s="7">
         <v>7.61</v>
       </c>
-      <c r="B24" s="8">
-        <v>6</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="F24" s="8">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9">
         <v>17167</v>
       </c>
-      <c r="E24" s="7">
+      <c r="I24" s="7">
         <v>6.38</v>
       </c>
-      <c r="F24" s="8">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="J24" s="8">
+        <v>6</v>
+      </c>
+      <c r="K24" s="9">
         <v>9389</v>
       </c>
-      <c r="I24" s="7">
+      <c r="M24" s="7">
         <v>9.31</v>
       </c>
-      <c r="J24" s="8">
-        <v>6</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="N24" s="8">
+        <v>6</v>
+      </c>
+      <c r="O24" s="9">
         <v>9204</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8">
+      <c r="V24" s="7"/>
+      <c r="W24" s="8">
         <v>7</v>
       </c>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="16" thickBot="1">
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" ht="16" thickBot="1">
       <c r="A25" s="7">
-        <v>7.45</v>
+        <v>4.41</v>
       </c>
       <c r="B25" s="8">
         <v>7</v>
       </c>
       <c r="C25" s="9">
-        <v>11594</v>
+        <v>10816</v>
       </c>
       <c r="E25" s="7">
-        <v>6.3</v>
+        <v>7.45</v>
       </c>
       <c r="F25" s="8">
         <v>7</v>
       </c>
       <c r="G25" s="9">
-        <v>9216</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>5</v>
+        <v>11594</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6.3</v>
       </c>
       <c r="J25" s="8">
         <v>7</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11">
+      <c r="K25" s="9">
+        <v>9216</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="8">
+        <v>7</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="11">
         <v>8</v>
       </c>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" ht="16" thickBot="1">
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" ht="16" thickBot="1">
       <c r="A26" s="13">
-        <v>6.95</v>
+        <v>3.91</v>
       </c>
       <c r="B26" s="14">
         <v>8</v>
       </c>
       <c r="C26" s="15">
+        <v>11665</v>
+      </c>
+      <c r="E26" s="13">
+        <v>6.95</v>
+      </c>
+      <c r="F26" s="14">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15">
         <v>10790</v>
       </c>
-      <c r="E26" s="10">
+      <c r="I26" s="10">
         <v>6.68</v>
-      </c>
-      <c r="F26" s="11">
-        <v>8</v>
-      </c>
-      <c r="G26" s="12">
-        <v>9009</v>
-      </c>
-      <c r="I26" s="10">
-        <v>9.16</v>
       </c>
       <c r="J26" s="11">
         <v>8</v>
       </c>
       <c r="K26" s="12">
+        <v>9009</v>
+      </c>
+      <c r="M26" s="10">
+        <v>9.16</v>
+      </c>
+      <c r="N26" s="11">
+        <v>8</v>
+      </c>
+      <c r="O26" s="12">
         <v>8180</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8">
+      <c r="V26" s="7"/>
+      <c r="W26" s="8">
         <v>2</v>
       </c>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="4">
-        <v>8.99</v>
+        <v>4.47</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
       </c>
       <c r="C27" s="6">
+        <v>9117</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
         <v>11364</v>
       </c>
-      <c r="E27" s="7">
+      <c r="I27" s="7">
         <v>9.8000000000000007</v>
-      </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-      <c r="G27" s="9">
-        <v>9442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>12.58</v>
       </c>
       <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="9">
+        <v>9442</v>
+      </c>
+      <c r="M27" s="7">
+        <v>12.58</v>
+      </c>
+      <c r="N27" s="8">
+        <v>2</v>
+      </c>
+      <c r="O27" s="9">
         <v>8421</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="8">
+      <c r="V27" s="7"/>
+      <c r="W27" s="8">
         <v>3</v>
       </c>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="7">
-        <v>8.82</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="B28" s="8">
         <v>3</v>
       </c>
       <c r="C28" s="9">
-        <v>13114</v>
+        <v>8960</v>
       </c>
       <c r="E28" s="7">
-        <v>9.57</v>
+        <v>8.82</v>
       </c>
       <c r="F28" s="8">
         <v>3</v>
       </c>
       <c r="G28" s="9">
-        <v>8928</v>
+        <v>13114</v>
       </c>
       <c r="I28" s="7">
-        <v>12.41</v>
+        <v>9.57</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
       </c>
       <c r="K28" s="9">
+        <v>8928</v>
+      </c>
+      <c r="M28" s="7">
+        <v>12.41</v>
+      </c>
+      <c r="N28" s="8">
+        <v>3</v>
+      </c>
+      <c r="O28" s="9">
         <v>8445</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8">
-        <v>4</v>
-      </c>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="V28" s="7"/>
+      <c r="W28" s="8">
+        <v>4</v>
+      </c>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="B29" s="8">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9">
+        <v>9284</v>
+      </c>
+      <c r="E29" s="7">
         <v>9.58</v>
       </c>
-      <c r="B29" s="8">
-        <v>4</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="9">
         <v>11940</v>
       </c>
-      <c r="E29" s="7">
+      <c r="I29" s="7">
         <v>10.28</v>
       </c>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="J29" s="8">
+        <v>4</v>
+      </c>
+      <c r="K29" s="9">
         <v>9456</v>
       </c>
-      <c r="I29" s="7">
+      <c r="M29" s="7">
         <v>12.77</v>
       </c>
-      <c r="J29" s="8">
-        <v>4</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="N29" s="8">
+        <v>4</v>
+      </c>
+      <c r="O29" s="9">
         <v>8465</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="8">
-        <v>5</v>
-      </c>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="V29" s="7"/>
+      <c r="W29" s="8">
+        <v>5</v>
+      </c>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9756</v>
+      </c>
+      <c r="E30" s="7">
         <v>10</v>
       </c>
-      <c r="B30" s="8">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="F30" s="8">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9">
         <v>11765</v>
       </c>
-      <c r="E30" s="7">
+      <c r="I30" s="7">
         <v>10.89</v>
       </c>
-      <c r="F30" s="8">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" s="9">
         <v>9280</v>
       </c>
-      <c r="I30" s="7">
+      <c r="M30" s="7">
         <v>12.74</v>
       </c>
-      <c r="J30" s="8">
-        <v>5</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="N30" s="8">
+        <v>5</v>
+      </c>
+      <c r="O30" s="9">
         <v>8792</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="8">
-        <v>6</v>
-      </c>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="V30" s="7"/>
+      <c r="W30" s="8">
+        <v>6</v>
+      </c>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="B31" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <v>9112</v>
+      </c>
+      <c r="E31" s="7">
         <v>8.5</v>
       </c>
-      <c r="B31" s="8">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
+      <c r="G31" s="9">
         <v>10106</v>
       </c>
-      <c r="E31" s="7">
+      <c r="I31" s="7">
         <v>9.89</v>
       </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="J31" s="8">
+        <v>6</v>
+      </c>
+      <c r="K31" s="9">
         <v>9204</v>
       </c>
-      <c r="I31" s="7">
+      <c r="M31" s="7">
         <v>12.56</v>
       </c>
-      <c r="J31" s="8">
-        <v>6</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="N31" s="8">
+        <v>6</v>
+      </c>
+      <c r="O31" s="9">
         <v>8620</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="8">
+      <c r="V31" s="7"/>
+      <c r="W31" s="8">
         <v>7</v>
       </c>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="16" thickBot="1">
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" ht="16" thickBot="1">
       <c r="A32" s="7">
-        <v>9.4700000000000006</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="B32" s="8">
         <v>7</v>
       </c>
       <c r="C32" s="9">
-        <v>12751</v>
+        <v>11628</v>
       </c>
       <c r="E32" s="7">
-        <v>9.83</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F32" s="8">
         <v>7</v>
       </c>
       <c r="G32" s="9">
-        <v>8050</v>
+        <v>12751</v>
       </c>
       <c r="I32" s="7">
-        <v>12.66</v>
+        <v>9.83</v>
       </c>
       <c r="J32" s="8">
         <v>7</v>
       </c>
       <c r="K32" s="9">
+        <v>8050</v>
+      </c>
+      <c r="M32" s="7">
+        <v>12.66</v>
+      </c>
+      <c r="N32" s="8">
+        <v>7</v>
+      </c>
+      <c r="O32" s="9">
         <v>8602</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11">
+      <c r="V32" s="10"/>
+      <c r="W32" s="11">
         <v>8</v>
       </c>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1">
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="1:24" ht="16" thickBot="1">
       <c r="A33" s="10">
-        <v>9.84</v>
+        <v>4.37</v>
       </c>
       <c r="B33" s="11">
         <v>8</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>8</v>
+      <c r="C33" s="12">
+        <v>11338</v>
       </c>
       <c r="E33" s="10">
-        <v>10.01</v>
+        <v>9.84</v>
       </c>
       <c r="F33" s="11">
         <v>8</v>
       </c>
-      <c r="G33" s="12">
-        <v>9456</v>
+      <c r="G33" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="I33" s="10">
-        <v>12.82</v>
+        <v>10.01</v>
       </c>
       <c r="J33" s="11">
         <v>8</v>
       </c>
       <c r="K33" s="12">
+        <v>9456</v>
+      </c>
+      <c r="M33" s="10">
+        <v>12.82</v>
+      </c>
+      <c r="N33" s="11">
+        <v>8</v>
+      </c>
+      <c r="O33" s="12">
         <v>8714</v>
       </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8">
+      <c r="V33" s="7"/>
+      <c r="W33" s="8">
         <v>2</v>
       </c>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="7">
-        <v>11</v>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" s="9">
-        <v>10582</v>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E34" s="7">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="F34" s="8">
         <v>2</v>
       </c>
       <c r="G34" s="9">
-        <v>8677</v>
+        <v>10582</v>
       </c>
       <c r="I34" s="7">
-        <v>14.67</v>
+        <v>11.49</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
       </c>
       <c r="K34" s="9">
+        <v>8677</v>
+      </c>
+      <c r="M34" s="7">
+        <v>14.67</v>
+      </c>
+      <c r="N34" s="8">
+        <v>2</v>
+      </c>
+      <c r="O34" s="9">
         <v>8477</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="8">
+      <c r="V34" s="7"/>
+      <c r="W34" s="8">
         <v>3</v>
       </c>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="7">
-        <v>10.86</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="B35" s="8">
         <v>3</v>
       </c>
       <c r="C35" s="9">
-        <v>9557</v>
+        <v>8658</v>
       </c>
       <c r="E35" s="7">
-        <v>11.46</v>
+        <v>10.86</v>
       </c>
       <c r="F35" s="8">
         <v>3</v>
       </c>
       <c r="G35" s="9">
-        <v>8340</v>
+        <v>9557</v>
       </c>
       <c r="I35" s="7">
-        <v>15.19</v>
+        <v>11.46</v>
       </c>
       <c r="J35" s="8">
         <v>3</v>
       </c>
       <c r="K35" s="9">
+        <v>8340</v>
+      </c>
+      <c r="M35" s="7">
+        <v>15.19</v>
+      </c>
+      <c r="N35" s="8">
+        <v>3</v>
+      </c>
+      <c r="O35" s="9">
         <v>8585</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="8">
-        <v>4</v>
-      </c>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="V35" s="7"/>
+      <c r="W35" s="8">
+        <v>4</v>
+      </c>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <v>8928</v>
+      </c>
+      <c r="E36" s="7">
         <v>10.65</v>
       </c>
-      <c r="B36" s="8">
-        <v>4</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="F36" s="8">
+        <v>4</v>
+      </c>
+      <c r="G36" s="9">
         <v>10811</v>
       </c>
-      <c r="E36" s="7">
+      <c r="I36" s="7">
         <v>11.43</v>
       </c>
-      <c r="F36" s="8">
-        <v>4</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="J36" s="8">
+        <v>4</v>
+      </c>
+      <c r="K36" s="9">
         <v>8752</v>
       </c>
-      <c r="I36" s="7">
+      <c r="M36" s="7">
         <v>14.87</v>
       </c>
-      <c r="J36" s="8">
-        <v>4</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="N36" s="8">
+        <v>4</v>
+      </c>
+      <c r="O36" s="9">
         <v>8756</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="8">
-        <v>5</v>
-      </c>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="V36" s="7"/>
+      <c r="W36" s="8">
+        <v>5</v>
+      </c>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8565</v>
+      </c>
+      <c r="E37" s="7">
         <v>10.029999999999999</v>
       </c>
-      <c r="B37" s="8">
-        <v>5</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="F37" s="8">
+        <v>5</v>
+      </c>
+      <c r="G37" s="9">
         <v>12270</v>
       </c>
-      <c r="E37" s="7">
+      <c r="I37" s="7">
         <v>11.75</v>
       </c>
-      <c r="F37" s="8">
-        <v>5</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="J37" s="8">
+        <v>5</v>
+      </c>
+      <c r="K37" s="9">
         <v>8798</v>
       </c>
-      <c r="I37" s="7">
+      <c r="M37" s="7">
         <v>14.69</v>
       </c>
-      <c r="J37" s="8">
-        <v>5</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="N37" s="8">
+        <v>5</v>
+      </c>
+      <c r="O37" s="9">
         <v>8547</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="8">
-        <v>6</v>
-      </c>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="V37" s="7"/>
+      <c r="W37" s="8">
+        <v>6</v>
+      </c>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="7">
+        <v>5.07</v>
+      </c>
+      <c r="B38" s="8">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>11111</v>
+      </c>
+      <c r="E38" s="7">
         <v>11.05</v>
       </c>
-      <c r="B38" s="8">
-        <v>6</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="F38" s="8">
+        <v>6</v>
+      </c>
+      <c r="G38" s="9">
         <v>11007</v>
       </c>
-      <c r="E38" s="7">
+      <c r="I38" s="7">
         <v>11.6</v>
       </c>
-      <c r="F38" s="8">
-        <v>6</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="9">
         <v>9302</v>
       </c>
-      <c r="I38" s="7">
+      <c r="M38" s="7">
         <v>14.89</v>
       </c>
-      <c r="J38" s="8">
-        <v>6</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="N38" s="8">
+        <v>6</v>
+      </c>
+      <c r="O38" s="9">
         <v>8677</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="8">
+      <c r="V38" s="7"/>
+      <c r="W38" s="8">
         <v>7</v>
       </c>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" ht="16" thickBot="1">
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" ht="16" thickBot="1">
       <c r="A39" s="7">
-        <v>11.49</v>
+        <v>4.99</v>
       </c>
       <c r="B39" s="8">
         <v>7</v>
       </c>
       <c r="C39" s="9">
-        <v>12012</v>
+        <v>10638</v>
       </c>
       <c r="E39" s="7">
-        <v>11.53</v>
+        <v>11.49</v>
       </c>
       <c r="F39" s="8">
         <v>7</v>
       </c>
       <c r="G39" s="9">
-        <v>9029</v>
+        <v>12012</v>
       </c>
       <c r="I39" s="7">
-        <v>14.32</v>
+        <v>11.53</v>
       </c>
       <c r="J39" s="8">
         <v>7</v>
       </c>
       <c r="K39" s="9">
+        <v>9029</v>
+      </c>
+      <c r="M39" s="7">
+        <v>14.32</v>
+      </c>
+      <c r="N39" s="8">
+        <v>7</v>
+      </c>
+      <c r="O39" s="9">
         <v>8639</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11">
+      <c r="V39" s="10"/>
+      <c r="W39" s="11">
         <v>8</v>
       </c>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="1:16" ht="16" thickBot="1">
+      <c r="X39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" ht="16" thickBot="1">
       <c r="A40" s="10">
-        <v>11.85</v>
+        <v>5</v>
       </c>
       <c r="B40" s="11">
         <v>8</v>
       </c>
       <c r="C40" s="12">
-        <v>11695</v>
+        <v>10340</v>
       </c>
       <c r="E40" s="10">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="F40" s="11">
         <v>8</v>
       </c>
       <c r="G40" s="12">
-        <v>9132</v>
+        <v>11695</v>
       </c>
       <c r="I40" s="10">
-        <v>14.65</v>
+        <v>11.69</v>
       </c>
       <c r="J40" s="11">
         <v>8</v>
       </c>
       <c r="K40" s="12">
+        <v>9132</v>
+      </c>
+      <c r="M40" s="10">
+        <v>14.65</v>
+      </c>
+      <c r="N40" s="11">
+        <v>8</v>
+      </c>
+      <c r="O40" s="12">
         <v>8403</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16" thickBot="1">
-      <c r="F42" t="s">
+    <row r="42" spans="1:24" ht="16" thickBot="1">
+      <c r="J42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="21" thickBot="1">
-      <c r="E43" s="16" t="s">
+    <row r="43" spans="1:24" ht="21" thickBot="1">
+      <c r="I43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="J43" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="K43" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="E44" s="7">
+    <row r="44" spans="1:24">
+      <c r="I44" s="7">
         <v>3.83</v>
       </c>
-      <c r="F44" s="8">
-        <v>4</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="J44" s="8">
+        <v>4</v>
+      </c>
+      <c r="K44" s="9">
         <v>9013</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="E45" s="7">
+    <row r="45" spans="1:24">
+      <c r="I45" s="7">
         <v>3.85</v>
       </c>
-      <c r="F45" s="8">
+      <c r="J45" s="8">
         <v>4.5</v>
       </c>
-      <c r="G45" s="9">
+      <c r="K45" s="9">
         <v>9828</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="E46" s="7">
+    <row r="46" spans="1:24">
+      <c r="I46" s="7">
         <v>3.89</v>
       </c>
-      <c r="F46" s="8">
-        <v>5</v>
-      </c>
-      <c r="G46" s="9">
+      <c r="J46" s="8">
+        <v>5</v>
+      </c>
+      <c r="K46" s="9">
         <v>9780</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
-      <c r="E47" s="7">
-        <v>4</v>
-      </c>
-      <c r="F47" s="8">
+    <row r="47" spans="1:24">
+      <c r="I47" s="7">
+        <v>4</v>
+      </c>
+      <c r="J47" s="8">
         <v>5.5</v>
       </c>
-      <c r="G47" s="9">
+      <c r="K47" s="9">
         <v>11662</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
-      <c r="E48" s="7">
+    <row r="48" spans="1:24">
+      <c r="I48" s="7">
         <v>3.96</v>
       </c>
-      <c r="F48" s="8">
-        <v>6</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="J48" s="8">
+        <v>6</v>
+      </c>
+      <c r="K48" s="9">
         <v>9552</v>
       </c>
     </row>
-    <row r="49" spans="4:7">
-      <c r="E49" s="7">
+    <row r="49" spans="8:11">
+      <c r="I49" s="7">
         <v>3.97</v>
       </c>
-      <c r="F49" s="8">
+      <c r="J49" s="8">
         <v>6.5</v>
       </c>
-      <c r="G49" s="9">
+      <c r="K49" s="9">
         <v>10447</v>
       </c>
     </row>
-    <row r="50" spans="4:7" ht="16" thickBot="1">
-      <c r="E50" s="10">
+    <row r="50" spans="8:11" ht="16" thickBot="1">
+      <c r="I50" s="10">
         <v>3.8</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>7</v>
       </c>
-      <c r="G50" s="12">
+      <c r="K50" s="12">
         <v>10371</v>
       </c>
     </row>
-    <row r="51" spans="4:7">
-      <c r="D51" t="s">
+    <row r="51" spans="8:11">
+      <c r="H51" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7">
+      <c r="I51" s="7">
         <v>4.66</v>
       </c>
-      <c r="F51" s="8">
-        <v>4</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="J51" s="8">
+        <v>4</v>
+      </c>
+      <c r="K51" s="9">
         <v>9860</v>
       </c>
     </row>
-    <row r="52" spans="4:7">
-      <c r="E52" s="7">
+    <row r="52" spans="8:11">
+      <c r="I52" s="7">
         <v>5.07</v>
       </c>
-      <c r="F52" s="8">
+      <c r="J52" s="8">
         <v>4.5</v>
       </c>
-      <c r="G52" s="9">
+      <c r="K52" s="9">
         <v>9780</v>
       </c>
     </row>
-    <row r="53" spans="4:7">
-      <c r="E53" s="7">
+    <row r="53" spans="8:11">
+      <c r="I53" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F53" s="8">
-        <v>5</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="J53" s="8">
+        <v>5</v>
+      </c>
+      <c r="K53" s="9">
         <v>9569</v>
       </c>
     </row>
-    <row r="54" spans="4:7">
-      <c r="E54" s="7">
+    <row r="54" spans="8:11">
+      <c r="I54" s="7">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F54" s="8">
+      <c r="J54" s="8">
         <v>5.5</v>
       </c>
-      <c r="G54" s="9">
+      <c r="K54" s="9">
         <v>9238</v>
       </c>
     </row>
-    <row r="55" spans="4:7">
-      <c r="E55" s="7">
+    <row r="55" spans="8:11">
+      <c r="I55" s="7">
         <v>4.55</v>
       </c>
-      <c r="F55" s="8">
-        <v>6</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="J55" s="8">
+        <v>6</v>
+      </c>
+      <c r="K55" s="9">
         <v>9501</v>
       </c>
     </row>
-    <row r="56" spans="4:7">
-      <c r="E56" s="7">
+    <row r="56" spans="8:11">
+      <c r="I56" s="7">
         <v>4.59</v>
       </c>
-      <c r="F56" s="8">
+      <c r="J56" s="8">
         <v>6.5</v>
       </c>
-      <c r="G56" s="9">
+      <c r="K56" s="9">
         <v>9099</v>
       </c>
     </row>
-    <row r="57" spans="4:7" ht="16" thickBot="1">
-      <c r="E57" s="10">
+    <row r="57" spans="8:11" ht="16" thickBot="1">
+      <c r="I57" s="10">
         <v>4.75</v>
       </c>
-      <c r="F57" s="11">
+      <c r="J57" s="11">
         <v>7</v>
       </c>
-      <c r="G57" s="12">
+      <c r="K57" s="12">
         <v>9287</v>
       </c>
     </row>
-    <row r="58" spans="4:7">
-      <c r="D58" t="s">
+    <row r="58" spans="8:11">
+      <c r="H58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="7">
+      <c r="I58" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F58" s="8">
-        <v>4</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="J58" s="8">
+        <v>4</v>
+      </c>
+      <c r="K58" s="9">
         <v>9909</v>
       </c>
     </row>
-    <row r="59" spans="4:7">
-      <c r="E59" s="7">
+    <row r="59" spans="8:11">
+      <c r="I59" s="7">
         <v>4.63</v>
       </c>
-      <c r="F59" s="8">
+      <c r="J59" s="8">
         <v>4.5</v>
       </c>
-      <c r="G59" s="9">
+      <c r="K59" s="9">
         <v>10032</v>
       </c>
     </row>
-    <row r="60" spans="4:7">
-      <c r="E60" s="7">
+    <row r="60" spans="8:11">
+      <c r="I60" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F60" s="8">
-        <v>5</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="J60" s="8">
+        <v>5</v>
+      </c>
+      <c r="K60" s="9">
         <v>9029</v>
       </c>
     </row>
-    <row r="61" spans="4:7">
-      <c r="E61" s="7">
+    <row r="61" spans="8:11">
+      <c r="I61" s="7">
         <v>5.19</v>
       </c>
-      <c r="F61" s="8">
+      <c r="J61" s="8">
         <v>5.5</v>
       </c>
-      <c r="G61" s="9">
+      <c r="K61" s="9">
         <v>9784</v>
       </c>
     </row>
-    <row r="62" spans="4:7">
-      <c r="E62" s="7">
+    <row r="62" spans="8:11">
+      <c r="I62" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F62" s="8">
-        <v>6</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7">
-      <c r="E63" s="7">
+      <c r="J62" s="8">
+        <v>6</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11">
+      <c r="I63" s="7">
         <v>4.67</v>
       </c>
-      <c r="F63" s="8">
+      <c r="J63" s="8">
         <v>6.5</v>
       </c>
-      <c r="G63" s="9">
+      <c r="K63" s="9">
         <v>9756</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="16" thickBot="1">
-      <c r="E64" s="10">
+    <row r="64" spans="8:11" ht="16" thickBot="1">
+      <c r="I64" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F64" s="11">
+      <c r="J64" s="11">
         <v>7</v>
       </c>
-      <c r="G64" s="12">
+      <c r="K64" s="12">
         <v>9434</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="7">
+    <row r="65" spans="9:11">
+      <c r="I65" s="7">
         <v>5.35</v>
       </c>
-      <c r="F65" s="8">
-        <v>4</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="J65" s="8">
+        <v>4</v>
+      </c>
+      <c r="K65" s="9">
         <v>9645</v>
       </c>
     </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="7">
+    <row r="66" spans="9:11">
+      <c r="I66" s="7">
         <v>5.37</v>
       </c>
-      <c r="F66" s="8">
+      <c r="J66" s="8">
         <v>4.5</v>
       </c>
-      <c r="G66" s="9">
+      <c r="K66" s="9">
         <v>10025</v>
       </c>
     </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="7">
+    <row r="67" spans="9:11">
+      <c r="I67" s="7">
         <v>5.34</v>
       </c>
-      <c r="F67" s="8">
-        <v>5</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="J67" s="8">
+        <v>5</v>
+      </c>
+      <c r="K67" s="9">
         <v>9758</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="7">
+    <row r="68" spans="9:11">
+      <c r="I68" s="7">
         <v>5.35</v>
       </c>
-      <c r="F68" s="8">
+      <c r="J68" s="8">
         <v>5.5</v>
       </c>
-      <c r="G68" s="9">
+      <c r="K68" s="9">
         <v>10554</v>
       </c>
     </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="7">
+    <row r="69" spans="9:11">
+      <c r="I69" s="7">
         <v>5.61</v>
       </c>
-      <c r="F69" s="8">
-        <v>6</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="J69" s="8">
+        <v>6</v>
+      </c>
+      <c r="K69" s="9">
         <v>9546</v>
       </c>
     </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="7">
+    <row r="70" spans="9:11">
+      <c r="I70" s="7">
         <v>5.17</v>
       </c>
-      <c r="F70" s="8">
+      <c r="J70" s="8">
         <v>6.5</v>
       </c>
-      <c r="G70" s="9">
+      <c r="K70" s="9">
         <v>9961</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="16" thickBot="1">
-      <c r="E71" s="10">
+    <row r="71" spans="9:11" ht="16" thickBot="1">
+      <c r="I71" s="10">
         <v>5.36</v>
       </c>
-      <c r="F71" s="11">
+      <c r="J71" s="11">
         <v>7</v>
       </c>
-      <c r="G71" s="12">
+      <c r="K71" s="12">
         <v>9307</v>
       </c>
     </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="7">
+    <row r="72" spans="9:11">
+      <c r="I72" s="7">
         <v>6.1</v>
       </c>
-      <c r="F72" s="8">
-        <v>4</v>
-      </c>
-      <c r="G72" s="9">
+      <c r="J72" s="8">
+        <v>4</v>
+      </c>
+      <c r="K72" s="9">
         <v>8877</v>
       </c>
     </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="7">
+    <row r="73" spans="9:11">
+      <c r="I73" s="7">
         <v>5.98</v>
       </c>
-      <c r="F73" s="8">
+      <c r="J73" s="8">
         <v>4.5</v>
       </c>
-      <c r="G73" s="9">
+      <c r="K73" s="9">
         <v>9412</v>
       </c>
     </row>
-    <row r="74" spans="5:7">
-      <c r="E74" s="7">
+    <row r="74" spans="9:11">
+      <c r="I74" s="7">
         <v>6.09</v>
       </c>
-      <c r="F74" s="8">
-        <v>5</v>
-      </c>
-      <c r="G74" s="9">
+      <c r="J74" s="8">
+        <v>5</v>
+      </c>
+      <c r="K74" s="9">
         <v>9615</v>
       </c>
     </row>
-    <row r="75" spans="5:7">
-      <c r="E75" s="7">
+    <row r="75" spans="9:11">
+      <c r="I75" s="7">
         <v>6.03</v>
       </c>
-      <c r="F75" s="8">
+      <c r="J75" s="8">
         <v>5.5</v>
       </c>
-      <c r="G75" s="9">
+      <c r="K75" s="9">
         <v>9350</v>
       </c>
     </row>
-    <row r="76" spans="5:7">
-      <c r="E76" s="7">
+    <row r="76" spans="9:11">
+      <c r="I76" s="7">
         <v>6.76</v>
       </c>
-      <c r="F76" s="8">
-        <v>6</v>
-      </c>
-      <c r="G76" s="9">
+      <c r="J76" s="8">
+        <v>6</v>
+      </c>
+      <c r="K76" s="9">
         <v>9863</v>
       </c>
     </row>
-    <row r="77" spans="5:7">
-      <c r="E77" s="7">
+    <row r="77" spans="9:11">
+      <c r="I77" s="7">
         <v>6.35</v>
       </c>
-      <c r="F77" s="8">
+      <c r="J77" s="8">
         <v>6.5</v>
       </c>
-      <c r="G77" s="9">
+      <c r="K77" s="9">
         <v>10474</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="16" thickBot="1">
-      <c r="E78" s="10">
+    <row r="78" spans="9:11" ht="16" thickBot="1">
+      <c r="I78" s="10">
         <v>6.15</v>
       </c>
-      <c r="F78" s="11">
+      <c r="J78" s="11">
         <v>7</v>
       </c>
-      <c r="G78" s="12">
+      <c r="K78" s="12">
         <v>9198</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="16" thickBot="1">
-      <c r="E80" t="s">
+    <row r="80" spans="9:11" ht="16" thickBot="1">
+      <c r="I80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="21" thickBot="1">
-      <c r="E81" s="16" t="s">
+    <row r="81" spans="9:11" ht="21" thickBot="1">
+      <c r="I81" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="J81" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="K81" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:7">
-      <c r="E82" s="7">
+    <row r="82" spans="9:11">
+      <c r="I82" s="7">
         <v>4.09</v>
       </c>
-      <c r="F82" s="8">
+      <c r="J82" s="8">
         <v>4.8</v>
       </c>
-      <c r="G82" s="9">
+      <c r="K82" s="9">
         <v>9195</v>
       </c>
     </row>
-    <row r="83" spans="5:7">
-      <c r="E83" s="7">
+    <row r="83" spans="9:11">
+      <c r="I83" s="7">
         <v>4.47</v>
       </c>
-      <c r="F83" s="8">
-        <v>5</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="J83" s="8">
+        <v>5</v>
+      </c>
+      <c r="K83" s="9">
         <v>9737</v>
       </c>
     </row>
-    <row r="84" spans="5:7">
-      <c r="E84" s="7">
+    <row r="84" spans="9:11">
+      <c r="I84" s="7">
         <v>4.28</v>
       </c>
-      <c r="F84" s="8">
+      <c r="J84" s="8">
         <v>5.2</v>
       </c>
-      <c r="G84" s="9">
+      <c r="K84" s="9">
         <v>10126</v>
       </c>
     </row>
-    <row r="85" spans="5:7">
-      <c r="E85" s="7">
+    <row r="85" spans="9:11">
+      <c r="I85" s="7">
         <v>3.39</v>
       </c>
-      <c r="F85" s="8">
+      <c r="J85" s="8">
         <v>5.4</v>
       </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9">
         <v>9623</v>
       </c>
     </row>
-    <row r="86" spans="5:7">
-      <c r="E86" s="7">
+    <row r="86" spans="9:11">
+      <c r="I86" s="7">
         <v>4.25</v>
       </c>
-      <c r="F86" s="8">
+      <c r="J86" s="8">
         <v>5.6</v>
       </c>
-      <c r="G86" s="9">
+      <c r="K86" s="9">
         <v>9740</v>
       </c>
     </row>
-    <row r="87" spans="5:7">
-      <c r="E87" s="7">
+    <row r="87" spans="9:11">
+      <c r="I87" s="7">
         <v>4.09</v>
       </c>
-      <c r="F87" s="8">
+      <c r="J87" s="8">
         <v>5.8</v>
       </c>
-      <c r="G87" s="9">
+      <c r="K87" s="9">
         <v>9876</v>
       </c>
     </row>
-    <row r="88" spans="5:7" ht="16" thickBot="1">
-      <c r="E88" s="10">
+    <row r="88" spans="9:11" ht="16" thickBot="1">
+      <c r="I88" s="10">
         <v>3.98</v>
       </c>
-      <c r="F88" s="11">
-        <v>6</v>
-      </c>
-      <c r="G88" s="12">
+      <c r="J88" s="11">
+        <v>6</v>
+      </c>
+      <c r="K88" s="12">
         <v>9262</v>
       </c>
     </row>
-    <row r="89" spans="5:7">
-      <c r="E89" s="7">
+    <row r="89" spans="9:11">
+      <c r="I89" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F89" s="8">
+      <c r="J89" s="8">
         <v>4.8</v>
       </c>
-      <c r="G89" s="9">
+      <c r="K89" s="9">
         <v>9953</v>
       </c>
     </row>
-    <row r="90" spans="5:7">
-      <c r="E90" s="7">
+    <row r="90" spans="9:11">
+      <c r="I90" s="7">
         <v>4.38</v>
       </c>
-      <c r="F90" s="8">
-        <v>5</v>
-      </c>
-      <c r="G90" s="9">
+      <c r="J90" s="8">
+        <v>5</v>
+      </c>
+      <c r="K90" s="9">
         <v>9761</v>
       </c>
     </row>
-    <row r="91" spans="5:7">
-      <c r="E91" s="7">
+    <row r="91" spans="9:11">
+      <c r="I91" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F91" s="8">
+      <c r="J91" s="8">
         <v>5.2</v>
       </c>
-      <c r="G91" s="9">
+      <c r="K91" s="9">
         <v>9389</v>
       </c>
     </row>
-    <row r="92" spans="5:7">
-      <c r="E92" s="7">
+    <row r="92" spans="9:11">
+      <c r="I92" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F92" s="8">
+      <c r="J92" s="8">
         <v>5.4</v>
       </c>
-      <c r="G92" s="9">
+      <c r="K92" s="9">
         <v>10582</v>
       </c>
     </row>
-    <row r="93" spans="5:7">
-      <c r="E93" s="7">
+    <row r="93" spans="9:11">
+      <c r="I93" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F93" s="8">
+      <c r="J93" s="8">
         <v>5.6</v>
       </c>
-      <c r="G93" s="9">
+      <c r="K93" s="9">
         <v>9661</v>
       </c>
     </row>
-    <row r="94" spans="5:7">
-      <c r="E94" s="7">
+    <row r="94" spans="9:11">
+      <c r="I94" s="7">
         <v>4.53</v>
       </c>
-      <c r="F94" s="8">
+      <c r="J94" s="8">
         <v>5.8</v>
       </c>
-      <c r="G94" s="9">
+      <c r="K94" s="9">
         <v>9625</v>
       </c>
     </row>
-    <row r="95" spans="5:7" ht="16" thickBot="1">
-      <c r="E95" s="10">
+    <row r="95" spans="9:11" ht="16" thickBot="1">
+      <c r="I95" s="10">
         <v>4.2</v>
       </c>
-      <c r="F95" s="11">
-        <v>6</v>
-      </c>
-      <c r="G95" s="12">
+      <c r="J95" s="11">
+        <v>6</v>
+      </c>
+      <c r="K95" s="12">
         <v>9183</v>
       </c>
     </row>
-    <row r="96" spans="5:7">
-      <c r="E96" s="7">
+    <row r="96" spans="9:11">
+      <c r="I96" s="7">
         <v>4.71</v>
       </c>
-      <c r="F96" s="8">
+      <c r="J96" s="8">
         <v>4.8</v>
       </c>
-      <c r="G96" s="9">
+      <c r="K96" s="9">
         <v>9266</v>
       </c>
     </row>
-    <row r="97" spans="5:7">
-      <c r="E97" s="7">
+    <row r="97" spans="9:11">
+      <c r="I97" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F97" s="8">
-        <v>5</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="J97" s="8">
+        <v>5</v>
+      </c>
+      <c r="K97" s="9">
         <v>9569</v>
       </c>
     </row>
-    <row r="98" spans="5:7">
-      <c r="E98" s="7">
+    <row r="98" spans="9:11">
+      <c r="I98" s="7">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F98" s="8">
+      <c r="J98" s="8">
         <v>5.2</v>
       </c>
-      <c r="G98" s="9">
+      <c r="K98" s="9">
         <v>9479</v>
       </c>
     </row>
-    <row r="99" spans="5:7">
-      <c r="E99" s="7">
+    <row r="99" spans="9:11">
+      <c r="I99" s="7">
         <v>4.62</v>
       </c>
-      <c r="F99" s="8">
+      <c r="J99" s="8">
         <v>5.4</v>
       </c>
-      <c r="G99" s="9">
+      <c r="K99" s="9">
         <v>9376</v>
       </c>
     </row>
-    <row r="100" spans="5:7">
-      <c r="E100" s="7">
+    <row r="100" spans="9:11">
+      <c r="I100" s="7">
         <v>4.92</v>
       </c>
-      <c r="F100" s="8">
+      <c r="J100" s="8">
         <v>5.6</v>
       </c>
-      <c r="G100" s="9">
+      <c r="K100" s="9">
         <v>9184</v>
       </c>
     </row>
-    <row r="101" spans="5:7">
-      <c r="E101" s="7">
+    <row r="101" spans="9:11">
+      <c r="I101" s="7">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F101" s="8">
+      <c r="J101" s="8">
         <v>5.8</v>
       </c>
-      <c r="G101" s="9">
+      <c r="K101" s="9">
         <v>9324</v>
       </c>
     </row>
-    <row r="102" spans="5:7" ht="16" thickBot="1">
-      <c r="E102" s="10">
+    <row r="102" spans="9:11" ht="16" thickBot="1">
+      <c r="I102" s="10">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F102" s="11">
-        <v>6</v>
-      </c>
-      <c r="G102" s="12">
+      <c r="J102" s="11">
+        <v>6</v>
+      </c>
+      <c r="K102" s="12">
         <v>9546</v>
       </c>
     </row>
-    <row r="103" spans="5:7">
-      <c r="E103" s="7">
+    <row r="103" spans="9:11">
+      <c r="I103" s="7">
         <v>5.21</v>
       </c>
-      <c r="F103" s="8">
+      <c r="J103" s="8">
         <v>4.8</v>
       </c>
-      <c r="G103" s="9">
+      <c r="K103" s="9">
         <v>8994</v>
       </c>
     </row>
-    <row r="104" spans="5:7">
-      <c r="E104" s="7">
+    <row r="104" spans="9:11">
+      <c r="I104" s="7">
         <v>4.97</v>
       </c>
-      <c r="F104" s="8">
-        <v>5</v>
-      </c>
-      <c r="G104" s="9">
+      <c r="J104" s="8">
+        <v>5</v>
+      </c>
+      <c r="K104" s="9">
         <v>9111</v>
       </c>
     </row>
-    <row r="105" spans="5:7">
-      <c r="E105" s="7">
+    <row r="105" spans="9:11">
+      <c r="I105" s="7">
         <v>5.31</v>
       </c>
-      <c r="F105" s="8">
+      <c r="J105" s="8">
         <v>5.2</v>
       </c>
-      <c r="G105" s="9">
+      <c r="K105" s="9">
         <v>9595</v>
       </c>
     </row>
-    <row r="106" spans="5:7">
-      <c r="E106" s="7">
+    <row r="106" spans="9:11">
+      <c r="I106" s="7">
         <v>5.21</v>
       </c>
-      <c r="F106" s="8">
+      <c r="J106" s="8">
         <v>5.4</v>
       </c>
-      <c r="G106" s="9">
+      <c r="K106" s="9">
         <v>9324</v>
       </c>
     </row>
-    <row r="107" spans="5:7">
-      <c r="E107" s="7">
+    <row r="107" spans="9:11">
+      <c r="I107" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F107" s="8">
+      <c r="J107" s="8">
         <v>5.6</v>
       </c>
-      <c r="G107" s="9">
+      <c r="K107" s="9">
         <v>9117</v>
       </c>
     </row>
-    <row r="108" spans="5:7">
-      <c r="E108" s="7">
+    <row r="108" spans="9:11">
+      <c r="I108" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F108" s="8">
+      <c r="J108" s="8">
         <v>5.8</v>
       </c>
-      <c r="G108" s="9">
+      <c r="K108" s="9">
         <v>9153</v>
       </c>
     </row>
-    <row r="109" spans="5:7" ht="16" thickBot="1">
-      <c r="E109" s="10">
+    <row r="109" spans="9:11" ht="16" thickBot="1">
+      <c r="I109" s="10">
         <v>5.26</v>
       </c>
-      <c r="F109" s="11">
-        <v>6</v>
-      </c>
-      <c r="G109" s="12">
+      <c r="J109" s="11">
+        <v>6</v>
+      </c>
+      <c r="K109" s="12">
         <v>9456</v>
       </c>
     </row>
-    <row r="110" spans="5:7">
-      <c r="E110" s="7">
+    <row r="110" spans="9:11">
+      <c r="I110" s="7">
         <v>5.37</v>
       </c>
-      <c r="F110" s="8">
+      <c r="J110" s="8">
         <v>4.8</v>
       </c>
-      <c r="G110" s="9">
+      <c r="K110" s="9">
         <v>9111</v>
       </c>
     </row>
-    <row r="111" spans="5:7">
-      <c r="E111" s="7">
+    <row r="111" spans="9:11">
+      <c r="I111" s="7">
         <v>5.56</v>
       </c>
-      <c r="F111" s="8">
-        <v>5</v>
-      </c>
-      <c r="G111" s="9">
+      <c r="J111" s="8">
+        <v>5</v>
+      </c>
+      <c r="K111" s="9">
         <v>9376</v>
       </c>
     </row>
-    <row r="112" spans="5:7">
-      <c r="E112" s="7">
+    <row r="112" spans="9:11">
+      <c r="I112" s="7">
         <v>5.51</v>
       </c>
-      <c r="F112" s="8">
+      <c r="J112" s="8">
         <v>5.2</v>
       </c>
-      <c r="G112" s="9">
+      <c r="K112" s="9">
         <v>9456</v>
       </c>
     </row>
-    <row r="113" spans="4:7">
-      <c r="D113" t="s">
+    <row r="113" spans="8:11">
+      <c r="H113" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8">
+      <c r="I113" s="7"/>
+      <c r="J113" s="8">
         <v>5.4</v>
       </c>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="4:7">
-      <c r="E114" s="7"/>
-      <c r="F114" s="8">
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="I114" s="7"/>
+      <c r="J114" s="8">
         <v>5.6</v>
       </c>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="4:7">
-      <c r="E115" s="7"/>
-      <c r="F115" s="8">
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="8:11">
+      <c r="I115" s="7"/>
+      <c r="J115" s="8">
         <v>5.8</v>
       </c>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="4:7" ht="16" thickBot="1">
-      <c r="E116" s="10"/>
-      <c r="F116" s="11">
-        <v>6</v>
-      </c>
-      <c r="G116" s="12"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="8:11" ht="16" thickBot="1">
+      <c r="I116" s="10"/>
+      <c r="J116" s="11">
+        <v>6</v>
+      </c>
+      <c r="K116" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Avg Droplet Spacing (us)</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Plate 6</t>
+  </si>
+  <si>
+    <t>Avg Wire Speed</t>
+  </si>
+  <si>
+    <t>Avg Droplet Spacing</t>
   </si>
 </sst>
 </file>
@@ -351,8 +357,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -409,7 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +435,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -444,11 +453,188 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.604285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.174285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.846666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$36:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14501.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11761.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10382.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9885.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9706.666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092996392"/>
+        <c:axId val="2092989816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2092996392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092989816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2092989816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092996392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,16 +959,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -794,38 +981,38 @@
     <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" thickBot="1">
+    <row r="4" spans="1:28" ht="16" thickBot="1">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="21" thickBot="1">
+    <row r="5" spans="1:28" ht="21" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -835,22 +1022,13 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="16" t="s">
@@ -862,13 +1040,22 @@
       <c r="O5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="8">
+      <c r="Q5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="R5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="4">
         <v>2.57</v>
       </c>
@@ -878,40 +1065,40 @@
       <c r="C6" s="6">
         <v>12903</v>
       </c>
-      <c r="E6" s="4">
+      <c r="I6" s="4">
         <v>4.21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="K6" s="6">
         <v>19047</v>
       </c>
-      <c r="I6" s="7">
+      <c r="M6" s="7">
         <v>3.48</v>
-      </c>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6" s="9">
-        <v>20014</v>
-      </c>
-      <c r="M6" s="7">
-        <v>5.34</v>
       </c>
       <c r="N6" s="8">
         <v>2</v>
       </c>
       <c r="O6" s="9">
+        <v>20014</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>5.34</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2</v>
+      </c>
+      <c r="S6" s="9">
         <v>12658</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="8">
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8">
         <v>3</v>
       </c>
-      <c r="X6" s="9"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="7">
         <v>2.5499999999999998</v>
       </c>
@@ -921,40 +1108,40 @@
       <c r="C7" s="9">
         <v>12195</v>
       </c>
-      <c r="E7" s="7">
+      <c r="I7" s="7">
         <v>4.04</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9">
-        <v>20619</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3.47</v>
       </c>
       <c r="J7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="9">
-        <v>23121</v>
+        <v>20619</v>
       </c>
       <c r="M7" s="7">
-        <v>4.9000000000000004</v>
+        <v>3.47</v>
       </c>
       <c r="N7" s="8">
         <v>3</v>
       </c>
       <c r="O7" s="9">
+        <v>23121</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R7" s="8">
+        <v>3</v>
+      </c>
+      <c r="S7" s="9">
         <v>14053</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8">
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="8">
         <v>4</v>
       </c>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="AB7" s="9"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="7">
         <v>2.59</v>
       </c>
@@ -964,40 +1151,40 @@
       <c r="C8" s="9">
         <v>13559</v>
       </c>
-      <c r="E8" s="7">
+      <c r="I8" s="7">
         <v>3.88</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>22857</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3.3</v>
       </c>
       <c r="J8" s="8">
         <v>4</v>
       </c>
       <c r="K8" s="9">
-        <v>23530</v>
+        <v>22857</v>
       </c>
       <c r="M8" s="7">
-        <v>4.97</v>
+        <v>3.3</v>
       </c>
       <c r="N8" s="8">
         <v>4</v>
       </c>
       <c r="O8" s="9">
+        <v>23530</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>4.97</v>
+      </c>
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
+      <c r="S8" s="9">
         <v>12317</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="8">
-        <v>5</v>
-      </c>
-      <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="9"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>2.48</v>
       </c>
@@ -1007,40 +1194,40 @@
       <c r="C9" s="9">
         <v>15873</v>
       </c>
-      <c r="E9" s="7">
+      <c r="I9" s="7">
         <v>3.98</v>
       </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
         <v>21978</v>
       </c>
-      <c r="I9" s="7">
+      <c r="M9" s="7">
         <v>3.3</v>
       </c>
-      <c r="J9" s="8">
-        <v>5</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
+      <c r="O9" s="9">
         <v>27398</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>5.18</v>
       </c>
-      <c r="N9" s="8">
-        <v>5</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="R9" s="8">
+        <v>5</v>
+      </c>
+      <c r="S9" s="9">
         <v>16461</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="8">
-        <v>6</v>
-      </c>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="7">
         <v>2.79</v>
       </c>
@@ -1050,40 +1237,40 @@
       <c r="C10" s="9">
         <v>15269</v>
       </c>
-      <c r="E10" s="7">
+      <c r="I10" s="7">
         <v>4.1399999999999997</v>
       </c>
-      <c r="F10" s="8">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9">
         <v>20833</v>
       </c>
-      <c r="I10" s="7">
+      <c r="M10" s="7">
         <v>2.96</v>
       </c>
-      <c r="J10" s="8">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="N10" s="8">
+        <v>6</v>
+      </c>
+      <c r="O10" s="9">
         <v>26845</v>
       </c>
-      <c r="M10" s="7">
+      <c r="Q10" s="7">
         <v>4.53</v>
       </c>
-      <c r="N10" s="8">
-        <v>6</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="R10" s="8">
+        <v>6</v>
+      </c>
+      <c r="S10" s="9">
         <v>11019</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="8">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8">
         <v>7</v>
       </c>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" ht="16" thickBot="1">
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" ht="16" thickBot="1">
       <c r="A11" s="7">
         <v>2.62</v>
       </c>
@@ -1093,40 +1280,46 @@
       <c r="C11" s="9">
         <v>16953</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
         <v>3.88</v>
-      </c>
-      <c r="F11" s="8">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9">
-        <v>20943</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3.39</v>
       </c>
       <c r="J11" s="8">
         <v>7</v>
       </c>
       <c r="K11" s="9">
-        <v>29646</v>
+        <v>20943</v>
       </c>
       <c r="M11" s="7">
-        <v>4.83</v>
+        <v>3.39</v>
       </c>
       <c r="N11" s="8">
         <v>7</v>
       </c>
       <c r="O11" s="9">
+        <v>29646</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>4.83</v>
+      </c>
+      <c r="R11" s="8">
+        <v>7</v>
+      </c>
+      <c r="S11" s="9">
         <v>79756</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11">
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="11">
         <v>8</v>
       </c>
-      <c r="X11" s="12"/>
-    </row>
-    <row r="12" spans="1:24" ht="16" thickBot="1">
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" ht="16" thickBot="1">
       <c r="A12" s="10">
         <v>2.63</v>
       </c>
@@ -1136,40 +1329,40 @@
       <c r="C12" s="12">
         <v>14760</v>
       </c>
-      <c r="E12" s="10">
+      <c r="I12" s="10">
         <v>3.95</v>
-      </c>
-      <c r="F12" s="11">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12">
-        <v>18872</v>
-      </c>
-      <c r="I12" s="10">
-        <v>3.42</v>
       </c>
       <c r="J12" s="11">
         <v>8</v>
       </c>
       <c r="K12" s="12">
-        <v>30534</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>5</v>
+        <v>18872</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3.42</v>
       </c>
       <c r="N12" s="11">
         <v>8</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="8">
+      <c r="O12" s="12">
+        <v>30534</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="11">
+        <v>8</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="8">
         <v>2</v>
       </c>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>3.38</v>
       </c>
@@ -1179,40 +1372,40 @@
       <c r="C13" s="9">
         <v>10392</v>
       </c>
-      <c r="E13" s="7">
+      <c r="I13" s="7">
         <v>6.02</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>13119</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4.07</v>
       </c>
       <c r="J13" s="8">
         <v>2</v>
       </c>
       <c r="K13" s="9">
-        <v>24342</v>
+        <v>13119</v>
       </c>
       <c r="M13" s="7">
-        <v>7.12</v>
+        <v>4.07</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
       </c>
       <c r="O13" s="9">
+        <v>24342</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>7.12</v>
+      </c>
+      <c r="R13" s="8">
+        <v>2</v>
+      </c>
+      <c r="S13" s="9">
         <v>9876</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="8">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8">
         <v>3</v>
       </c>
-      <c r="X13" s="9"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="AB13" s="9"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="7">
         <v>3.27</v>
       </c>
@@ -1222,40 +1415,40 @@
       <c r="C14" s="9">
         <v>10309</v>
       </c>
-      <c r="E14" s="7">
+      <c r="I14" s="7">
         <v>5.81</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="9">
-        <v>15037</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4.1900000000000004</v>
       </c>
       <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="9">
-        <v>19802</v>
+        <v>15037</v>
       </c>
       <c r="M14" s="7">
-        <v>6.93</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="N14" s="8">
         <v>3</v>
       </c>
       <c r="O14" s="9">
+        <v>19802</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>6.93</v>
+      </c>
+      <c r="R14" s="8">
+        <v>3</v>
+      </c>
+      <c r="S14" s="9">
         <v>9959</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="8">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="8">
         <v>4</v>
       </c>
-      <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="AB14" s="9"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>3.72</v>
       </c>
@@ -1265,40 +1458,40 @@
       <c r="C15" s="9">
         <v>11396</v>
       </c>
-      <c r="E15" s="7">
+      <c r="I15" s="7">
         <v>6.19</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9">
-        <v>14084</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3.95</v>
       </c>
       <c r="J15" s="8">
         <v>4</v>
       </c>
       <c r="K15" s="9">
-        <v>17467</v>
+        <v>14084</v>
       </c>
       <c r="M15" s="7">
-        <v>7.22</v>
+        <v>3.95</v>
       </c>
       <c r="N15" s="8">
         <v>4</v>
       </c>
       <c r="O15" s="9">
+        <v>17467</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>7.22</v>
+      </c>
+      <c r="R15" s="8">
+        <v>4</v>
+      </c>
+      <c r="S15" s="9">
         <v>10315</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8">
-        <v>5</v>
-      </c>
-      <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="7">
         <v>3.7</v>
       </c>
@@ -1308,40 +1501,40 @@
       <c r="C16" s="9">
         <v>12232</v>
       </c>
-      <c r="E16" s="7">
+      <c r="I16" s="7">
         <v>6.06</v>
       </c>
-      <c r="F16" s="8">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
         <v>12539</v>
       </c>
-      <c r="I16" s="7">
+      <c r="M16" s="7">
         <v>3.86</v>
       </c>
-      <c r="J16" s="8">
-        <v>5</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
+      <c r="O16" s="9">
         <v>18868</v>
       </c>
-      <c r="M16" s="7">
+      <c r="Q16" s="7">
         <v>6.82</v>
       </c>
-      <c r="N16" s="8">
-        <v>5</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="R16" s="8">
+        <v>5</v>
+      </c>
+      <c r="S16" s="9">
         <v>9527</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8">
-        <v>6</v>
-      </c>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="9"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>3.39</v>
       </c>
@@ -1351,40 +1544,40 @@
       <c r="C17" s="9">
         <v>11950</v>
       </c>
-      <c r="E17" s="7">
+      <c r="I17" s="7">
         <v>5.71</v>
       </c>
-      <c r="F17" s="8">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="J17" s="8">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9">
         <v>15504</v>
       </c>
-      <c r="I17" s="7">
+      <c r="M17" s="7">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J17" s="8">
-        <v>6</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="N17" s="8">
+        <v>6</v>
+      </c>
+      <c r="O17" s="9">
         <v>14545</v>
       </c>
-      <c r="M17" s="7">
+      <c r="Q17" s="7">
         <v>6.74</v>
       </c>
-      <c r="N17" s="8">
-        <v>6</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="R17" s="8">
+        <v>6</v>
+      </c>
+      <c r="S17" s="9">
         <v>9195</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="8">
         <v>7</v>
       </c>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24" ht="16" thickBot="1">
+      <c r="AB17" s="9"/>
+    </row>
+    <row r="18" spans="1:28" ht="16" thickBot="1">
       <c r="A18" s="7">
         <v>3.45</v>
       </c>
@@ -1394,40 +1587,40 @@
       <c r="C18" s="9">
         <v>11954</v>
       </c>
-      <c r="E18" s="7">
+      <c r="I18" s="7">
         <v>5.6</v>
-      </c>
-      <c r="F18" s="8">
-        <v>7</v>
-      </c>
-      <c r="G18" s="9">
-        <v>10257</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4.09</v>
       </c>
       <c r="J18" s="8">
         <v>7</v>
       </c>
       <c r="K18" s="9">
-        <v>13333</v>
+        <v>10257</v>
       </c>
       <c r="M18" s="7">
-        <v>6.8</v>
+        <v>4.09</v>
       </c>
       <c r="N18" s="8">
         <v>7</v>
       </c>
       <c r="O18" s="9">
+        <v>13333</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="R18" s="8">
+        <v>7</v>
+      </c>
+      <c r="S18" s="9">
         <v>9227</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11">
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="11">
         <v>8</v>
       </c>
-      <c r="X18" s="12"/>
-    </row>
-    <row r="19" spans="1:24" ht="16" thickBot="1">
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28" ht="16" thickBot="1">
       <c r="A19" s="10">
         <v>3.52</v>
       </c>
@@ -1437,40 +1630,40 @@
       <c r="C19" s="12">
         <v>14100</v>
       </c>
-      <c r="E19" s="10">
+      <c r="I19" s="10">
         <v>6.54</v>
-      </c>
-      <c r="F19" s="11">
-        <v>8</v>
-      </c>
-      <c r="G19" s="12">
-        <v>17621</v>
-      </c>
-      <c r="I19" s="10">
-        <v>3.99</v>
       </c>
       <c r="J19" s="11">
         <v>8</v>
       </c>
       <c r="K19" s="12">
-        <v>19900</v>
+        <v>17621</v>
       </c>
       <c r="M19" s="10">
-        <v>6.87</v>
+        <v>3.99</v>
       </c>
       <c r="N19" s="11">
         <v>8</v>
       </c>
       <c r="O19" s="12">
+        <v>19900</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="R19" s="11">
+        <v>8</v>
+      </c>
+      <c r="S19" s="12">
         <v>9852</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8">
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8">
         <v>2</v>
       </c>
-      <c r="X19" s="9"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="7">
         <v>4.12</v>
       </c>
@@ -1480,40 +1673,40 @@
       <c r="C20" s="9">
         <v>9464</v>
       </c>
-      <c r="E20" s="7">
+      <c r="I20" s="7">
         <v>7.5</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9">
-        <v>12820</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6.55</v>
       </c>
       <c r="J20" s="8">
         <v>2</v>
       </c>
       <c r="K20" s="9">
-        <v>11267</v>
+        <v>12820</v>
       </c>
       <c r="M20" s="7">
-        <v>9.3000000000000007</v>
+        <v>6.55</v>
       </c>
       <c r="N20" s="8">
         <v>2</v>
       </c>
       <c r="O20" s="9">
+        <v>11267</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
+      </c>
+      <c r="S20" s="9">
         <v>8948</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8">
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="8">
         <v>3</v>
       </c>
-      <c r="X20" s="9"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="AB20" s="9"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>4</v>
       </c>
@@ -1521,42 +1714,42 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <v>96662</v>
-      </c>
-      <c r="E21" s="7">
+        <v>9662</v>
+      </c>
+      <c r="I21" s="7">
         <v>7.2</v>
-      </c>
-      <c r="F21" s="8">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9">
-        <v>14035</v>
-      </c>
-      <c r="I21" s="7">
-        <v>6.8</v>
       </c>
       <c r="J21" s="8">
         <v>3</v>
       </c>
       <c r="K21" s="9">
-        <v>11173</v>
+        <v>14035</v>
       </c>
       <c r="M21" s="7">
-        <v>9.19</v>
+        <v>6.8</v>
       </c>
       <c r="N21" s="8">
         <v>3</v>
       </c>
       <c r="O21" s="9">
+        <v>11173</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9">
         <v>9091</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="8">
         <v>4</v>
       </c>
-      <c r="X21" s="9"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="7">
         <v>3.98</v>
       </c>
@@ -1566,40 +1759,40 @@
       <c r="C22" s="9">
         <v>10000</v>
       </c>
-      <c r="E22" s="7">
+      <c r="I22" s="7">
         <v>7.61</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9">
-        <v>14760</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7.23</v>
       </c>
       <c r="J22" s="8">
         <v>4</v>
       </c>
       <c r="K22" s="9">
-        <v>12012</v>
+        <v>14760</v>
       </c>
       <c r="M22" s="7">
-        <v>9.42</v>
+        <v>7.23</v>
       </c>
       <c r="N22" s="8">
         <v>4</v>
       </c>
       <c r="O22" s="9">
+        <v>12012</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>9.42</v>
+      </c>
+      <c r="R22" s="8">
+        <v>4</v>
+      </c>
+      <c r="S22" s="9">
         <v>9599</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="8">
-        <v>5</v>
-      </c>
-      <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="9"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>4.26</v>
       </c>
@@ -1609,40 +1802,40 @@
       <c r="C23" s="9">
         <v>10256</v>
       </c>
-      <c r="E23" s="7">
+      <c r="I23" s="7">
         <v>7.67</v>
       </c>
-      <c r="F23" s="8">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
         <v>15267</v>
       </c>
-      <c r="I23" s="7">
+      <c r="M23" s="7">
         <v>6.49</v>
       </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="O23" s="9">
         <v>9788</v>
       </c>
-      <c r="M23" s="7">
+      <c r="Q23" s="7">
         <v>9.26</v>
       </c>
-      <c r="N23" s="8">
-        <v>5</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="R23" s="8">
+        <v>5</v>
+      </c>
+      <c r="S23" s="9">
         <v>9466</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="8">
-        <v>6</v>
-      </c>
-      <c r="X23" s="9"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="7">
         <v>4.54</v>
       </c>
@@ -1652,40 +1845,40 @@
       <c r="C24" s="9">
         <v>10816</v>
       </c>
-      <c r="E24" s="7">
+      <c r="I24" s="7">
         <v>7.61</v>
       </c>
-      <c r="F24" s="8">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="J24" s="8">
+        <v>6</v>
+      </c>
+      <c r="K24" s="9">
         <v>17167</v>
       </c>
-      <c r="I24" s="7">
+      <c r="M24" s="7">
         <v>6.38</v>
       </c>
-      <c r="J24" s="8">
-        <v>6</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="N24" s="8">
+        <v>6</v>
+      </c>
+      <c r="O24" s="9">
         <v>9389</v>
       </c>
-      <c r="M24" s="7">
+      <c r="Q24" s="7">
         <v>9.31</v>
       </c>
-      <c r="N24" s="8">
-        <v>6</v>
-      </c>
-      <c r="O24" s="9">
+      <c r="R24" s="8">
+        <v>6</v>
+      </c>
+      <c r="S24" s="9">
         <v>9204</v>
       </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="8">
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="8">
         <v>7</v>
       </c>
-      <c r="X24" s="9"/>
-    </row>
-    <row r="25" spans="1:24" ht="16" thickBot="1">
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" spans="1:28" ht="16" thickBot="1">
       <c r="A25" s="7">
         <v>4.41</v>
       </c>
@@ -1695,40 +1888,40 @@
       <c r="C25" s="9">
         <v>10816</v>
       </c>
-      <c r="E25" s="7">
+      <c r="I25" s="7">
         <v>7.45</v>
-      </c>
-      <c r="F25" s="8">
-        <v>7</v>
-      </c>
-      <c r="G25" s="9">
-        <v>11594</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6.3</v>
       </c>
       <c r="J25" s="8">
         <v>7</v>
       </c>
       <c r="K25" s="9">
-        <v>9216</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>5</v>
+        <v>11594</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6.3</v>
       </c>
       <c r="N25" s="8">
         <v>7</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11">
+      <c r="O25" s="9">
+        <v>9216</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="8">
+        <v>7</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="11">
         <v>8</v>
       </c>
-      <c r="X25" s="12"/>
-    </row>
-    <row r="26" spans="1:24" ht="16" thickBot="1">
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:28" ht="16" thickBot="1">
       <c r="A26" s="13">
         <v>3.91</v>
       </c>
@@ -1738,40 +1931,40 @@
       <c r="C26" s="15">
         <v>11665</v>
       </c>
-      <c r="E26" s="13">
+      <c r="I26" s="13">
         <v>6.95</v>
       </c>
-      <c r="F26" s="14">
+      <c r="J26" s="14">
         <v>8</v>
       </c>
-      <c r="G26" s="15">
+      <c r="K26" s="15">
         <v>10790</v>
       </c>
-      <c r="I26" s="10">
+      <c r="M26" s="10">
         <v>6.68</v>
-      </c>
-      <c r="J26" s="11">
-        <v>8</v>
-      </c>
-      <c r="K26" s="12">
-        <v>9009</v>
-      </c>
-      <c r="M26" s="10">
-        <v>9.16</v>
       </c>
       <c r="N26" s="11">
         <v>8</v>
       </c>
       <c r="O26" s="12">
+        <v>9009</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>9.16</v>
+      </c>
+      <c r="R26" s="11">
+        <v>8</v>
+      </c>
+      <c r="S26" s="12">
         <v>8180</v>
       </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8">
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="8">
         <v>2</v>
       </c>
-      <c r="X26" s="9"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="4">
         <v>4.47</v>
       </c>
@@ -1781,40 +1974,40 @@
       <c r="C27" s="6">
         <v>9117</v>
       </c>
-      <c r="E27" s="4">
+      <c r="I27" s="4">
         <v>8.99</v>
       </c>
-      <c r="F27" s="5">
+      <c r="J27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="K27" s="6">
         <v>11364</v>
       </c>
-      <c r="I27" s="7">
+      <c r="M27" s="7">
         <v>9.8000000000000007</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2</v>
-      </c>
-      <c r="K27" s="9">
-        <v>9442</v>
-      </c>
-      <c r="M27" s="7">
-        <v>12.58</v>
       </c>
       <c r="N27" s="8">
         <v>2</v>
       </c>
       <c r="O27" s="9">
+        <v>9442</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>12.58</v>
+      </c>
+      <c r="R27" s="8">
+        <v>2</v>
+      </c>
+      <c r="S27" s="9">
         <v>8421</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="8">
         <v>3</v>
       </c>
-      <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="7">
         <v>4.4800000000000004</v>
       </c>
@@ -1824,40 +2017,40 @@
       <c r="C28" s="9">
         <v>8960</v>
       </c>
-      <c r="E28" s="7">
+      <c r="I28" s="7">
         <v>8.82</v>
-      </c>
-      <c r="F28" s="8">
-        <v>3</v>
-      </c>
-      <c r="G28" s="9">
-        <v>13114</v>
-      </c>
-      <c r="I28" s="7">
-        <v>9.57</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
       </c>
       <c r="K28" s="9">
-        <v>8928</v>
+        <v>13114</v>
       </c>
       <c r="M28" s="7">
-        <v>12.41</v>
+        <v>9.57</v>
       </c>
       <c r="N28" s="8">
         <v>3</v>
       </c>
       <c r="O28" s="9">
+        <v>8928</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>12.41</v>
+      </c>
+      <c r="R28" s="8">
+        <v>3</v>
+      </c>
+      <c r="S28" s="9">
         <v>8445</v>
       </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="8">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="8">
         <v>4</v>
       </c>
-      <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>4.47</v>
       </c>
@@ -1867,40 +2060,40 @@
       <c r="C29" s="9">
         <v>9284</v>
       </c>
-      <c r="E29" s="7">
+      <c r="I29" s="7">
         <v>9.58</v>
-      </c>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9">
-        <v>11940</v>
-      </c>
-      <c r="I29" s="7">
-        <v>10.28</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
       </c>
       <c r="K29" s="9">
-        <v>9456</v>
+        <v>11940</v>
       </c>
       <c r="M29" s="7">
-        <v>12.77</v>
+        <v>10.28</v>
       </c>
       <c r="N29" s="8">
         <v>4</v>
       </c>
       <c r="O29" s="9">
+        <v>9456</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>12.77</v>
+      </c>
+      <c r="R29" s="8">
+        <v>4</v>
+      </c>
+      <c r="S29" s="9">
         <v>8465</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="8">
-        <v>5</v>
-      </c>
-      <c r="X29" s="9"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="7">
         <v>4.84</v>
       </c>
@@ -1910,40 +2103,40 @@
       <c r="C30" s="9">
         <v>9756</v>
       </c>
-      <c r="E30" s="7">
+      <c r="I30" s="7">
         <v>10</v>
       </c>
-      <c r="F30" s="8">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" s="9">
         <v>11765</v>
       </c>
-      <c r="I30" s="7">
+      <c r="M30" s="7">
         <v>10.89</v>
       </c>
-      <c r="J30" s="8">
-        <v>5</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="N30" s="8">
+        <v>5</v>
+      </c>
+      <c r="O30" s="9">
         <v>9280</v>
       </c>
-      <c r="M30" s="7">
+      <c r="Q30" s="7">
         <v>12.74</v>
       </c>
-      <c r="N30" s="8">
-        <v>5</v>
-      </c>
-      <c r="O30" s="9">
+      <c r="R30" s="8">
+        <v>5</v>
+      </c>
+      <c r="S30" s="9">
         <v>8792</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="8">
-        <v>6</v>
-      </c>
-      <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>4.3899999999999997</v>
       </c>
@@ -1953,40 +2146,40 @@
       <c r="C31" s="9">
         <v>9112</v>
       </c>
-      <c r="E31" s="7">
+      <c r="I31" s="7">
         <v>8.5</v>
       </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="J31" s="8">
+        <v>6</v>
+      </c>
+      <c r="K31" s="9">
         <v>10106</v>
       </c>
-      <c r="I31" s="7">
+      <c r="M31" s="7">
         <v>9.89</v>
       </c>
-      <c r="J31" s="8">
-        <v>6</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="N31" s="8">
+        <v>6</v>
+      </c>
+      <c r="O31" s="9">
         <v>9204</v>
       </c>
-      <c r="M31" s="7">
+      <c r="Q31" s="7">
         <v>12.56</v>
       </c>
-      <c r="N31" s="8">
-        <v>6</v>
-      </c>
-      <c r="O31" s="9">
+      <c r="R31" s="8">
+        <v>6</v>
+      </c>
+      <c r="S31" s="9">
         <v>8620</v>
       </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="8">
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="8">
         <v>7</v>
       </c>
-      <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="1:24" ht="16" thickBot="1">
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" spans="1:28" ht="16" thickBot="1">
       <c r="A32" s="7">
         <v>4.9800000000000004</v>
       </c>
@@ -1996,40 +2189,40 @@
       <c r="C32" s="9">
         <v>11628</v>
       </c>
-      <c r="E32" s="7">
+      <c r="I32" s="7">
         <v>9.4700000000000006</v>
-      </c>
-      <c r="F32" s="8">
-        <v>7</v>
-      </c>
-      <c r="G32" s="9">
-        <v>12751</v>
-      </c>
-      <c r="I32" s="7">
-        <v>9.83</v>
       </c>
       <c r="J32" s="8">
         <v>7</v>
       </c>
       <c r="K32" s="9">
-        <v>8050</v>
+        <v>12751</v>
       </c>
       <c r="M32" s="7">
-        <v>12.66</v>
+        <v>9.83</v>
       </c>
       <c r="N32" s="8">
         <v>7</v>
       </c>
       <c r="O32" s="9">
+        <v>8050</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>12.66</v>
+      </c>
+      <c r="R32" s="8">
+        <v>7</v>
+      </c>
+      <c r="S32" s="9">
         <v>8602</v>
       </c>
-      <c r="V32" s="10"/>
-      <c r="W32" s="11">
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="11">
         <v>8</v>
       </c>
-      <c r="X32" s="12"/>
-    </row>
-    <row r="33" spans="1:24" ht="16" thickBot="1">
+      <c r="AB32" s="12"/>
+    </row>
+    <row r="33" spans="1:28" ht="16" thickBot="1">
       <c r="A33" s="10">
         <v>4.37</v>
       </c>
@@ -2039,40 +2232,40 @@
       <c r="C33" s="12">
         <v>11338</v>
       </c>
-      <c r="E33" s="10">
+      <c r="I33" s="10">
         <v>9.84</v>
-      </c>
-      <c r="F33" s="11">
-        <v>8</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="10">
-        <v>10.01</v>
       </c>
       <c r="J33" s="11">
         <v>8</v>
       </c>
-      <c r="K33" s="12">
-        <v>9456</v>
+      <c r="K33" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="M33" s="10">
-        <v>12.82</v>
+        <v>10.01</v>
       </c>
       <c r="N33" s="11">
         <v>8</v>
       </c>
       <c r="O33" s="12">
+        <v>9456</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>12.82</v>
+      </c>
+      <c r="R33" s="11">
+        <v>8</v>
+      </c>
+      <c r="S33" s="12">
         <v>8714</v>
       </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="8">
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="8">
         <v>2</v>
       </c>
-      <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2082,40 +2275,40 @@
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="I34" s="7">
         <v>11</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-      <c r="G34" s="9">
-        <v>10582</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11.49</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
       </c>
       <c r="K34" s="9">
-        <v>8677</v>
+        <v>10582</v>
       </c>
       <c r="M34" s="7">
-        <v>14.67</v>
+        <v>11.49</v>
       </c>
       <c r="N34" s="8">
         <v>2</v>
       </c>
       <c r="O34" s="9">
+        <v>8677</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>14.67</v>
+      </c>
+      <c r="R34" s="8">
+        <v>2</v>
+      </c>
+      <c r="S34" s="9">
         <v>8477</v>
       </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="8">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="8">
         <v>3</v>
       </c>
-      <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="AB34" s="9"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>4.6399999999999997</v>
       </c>
@@ -2125,40 +2318,40 @@
       <c r="C35" s="9">
         <v>8658</v>
       </c>
-      <c r="E35" s="7">
+      <c r="I35" s="7">
         <v>10.86</v>
-      </c>
-      <c r="F35" s="8">
-        <v>3</v>
-      </c>
-      <c r="G35" s="9">
-        <v>9557</v>
-      </c>
-      <c r="I35" s="7">
-        <v>11.46</v>
       </c>
       <c r="J35" s="8">
         <v>3</v>
       </c>
       <c r="K35" s="9">
-        <v>8340</v>
+        <v>9557</v>
       </c>
       <c r="M35" s="7">
-        <v>15.19</v>
+        <v>11.46</v>
       </c>
       <c r="N35" s="8">
         <v>3</v>
       </c>
       <c r="O35" s="9">
+        <v>8340</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>15.19</v>
+      </c>
+      <c r="R35" s="8">
+        <v>3</v>
+      </c>
+      <c r="S35" s="9">
         <v>8585</v>
       </c>
-      <c r="V35" s="7"/>
-      <c r="W35" s="8">
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="8">
         <v>4</v>
       </c>
-      <c r="X35" s="9"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="AB35" s="9"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="7">
         <v>4.67</v>
       </c>
@@ -2168,40 +2361,48 @@
       <c r="C36" s="9">
         <v>8928</v>
       </c>
-      <c r="E36" s="7">
+      <c r="D36">
+        <f>AVERAGE(A6:A12)</f>
+        <v>2.6042857142857145</v>
+      </c>
+      <c r="E36">
+        <f>AVERAGE(C6:C12)</f>
+        <v>14501.714285714286</v>
+      </c>
+      <c r="I36" s="7">
         <v>10.65</v>
-      </c>
-      <c r="F36" s="8">
-        <v>4</v>
-      </c>
-      <c r="G36" s="9">
-        <v>10811</v>
-      </c>
-      <c r="I36" s="7">
-        <v>11.43</v>
       </c>
       <c r="J36" s="8">
         <v>4</v>
       </c>
       <c r="K36" s="9">
-        <v>8752</v>
+        <v>10811</v>
       </c>
       <c r="M36" s="7">
-        <v>14.87</v>
+        <v>11.43</v>
       </c>
       <c r="N36" s="8">
         <v>4</v>
       </c>
       <c r="O36" s="9">
+        <v>8752</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>14.87</v>
+      </c>
+      <c r="R36" s="8">
+        <v>4</v>
+      </c>
+      <c r="S36" s="9">
         <v>8756</v>
       </c>
-      <c r="V36" s="7"/>
-      <c r="W36" s="8">
-        <v>5</v>
-      </c>
-      <c r="X36" s="9"/>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>4.71</v>
       </c>
@@ -2211,40 +2412,48 @@
       <c r="C37" s="9">
         <v>8565</v>
       </c>
-      <c r="E37" s="7">
+      <c r="D37">
+        <f>AVERAGE(A13:A19)</f>
+        <v>3.4899999999999998</v>
+      </c>
+      <c r="E37">
+        <f>AVERAGE(C13:C19)</f>
+        <v>11761.857142857143</v>
+      </c>
+      <c r="I37" s="7">
         <v>10.029999999999999</v>
       </c>
-      <c r="F37" s="8">
-        <v>5</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="J37" s="8">
+        <v>5</v>
+      </c>
+      <c r="K37" s="9">
         <v>12270</v>
       </c>
-      <c r="I37" s="7">
+      <c r="M37" s="7">
         <v>11.75</v>
       </c>
-      <c r="J37" s="8">
-        <v>5</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="N37" s="8">
+        <v>5</v>
+      </c>
+      <c r="O37" s="9">
         <v>8798</v>
       </c>
-      <c r="M37" s="7">
+      <c r="Q37" s="7">
         <v>14.69</v>
       </c>
-      <c r="N37" s="8">
-        <v>5</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="R37" s="8">
+        <v>5</v>
+      </c>
+      <c r="S37" s="9">
         <v>8547</v>
       </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="8">
-        <v>6</v>
-      </c>
-      <c r="X37" s="9"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="9"/>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="7">
         <v>5.07</v>
       </c>
@@ -2254,40 +2463,48 @@
       <c r="C38" s="9">
         <v>11111</v>
       </c>
-      <c r="E38" s="7">
+      <c r="D38">
+        <f>AVERAGE(A20:A26)</f>
+        <v>4.1742857142857144</v>
+      </c>
+      <c r="E38">
+        <f>AVERAGE(C20:C26)</f>
+        <v>10382.714285714286</v>
+      </c>
+      <c r="I38" s="7">
         <v>11.05</v>
       </c>
-      <c r="F38" s="8">
-        <v>6</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="9">
         <v>11007</v>
       </c>
-      <c r="I38" s="7">
+      <c r="M38" s="7">
         <v>11.6</v>
       </c>
-      <c r="J38" s="8">
-        <v>6</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="N38" s="8">
+        <v>6</v>
+      </c>
+      <c r="O38" s="9">
         <v>9302</v>
       </c>
-      <c r="M38" s="7">
+      <c r="Q38" s="7">
         <v>14.89</v>
       </c>
-      <c r="N38" s="8">
-        <v>6</v>
-      </c>
-      <c r="O38" s="9">
+      <c r="R38" s="8">
+        <v>6</v>
+      </c>
+      <c r="S38" s="9">
         <v>8677</v>
       </c>
-      <c r="V38" s="7"/>
-      <c r="W38" s="8">
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8">
         <v>7</v>
       </c>
-      <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="1:24" ht="16" thickBot="1">
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" spans="1:28" ht="16" thickBot="1">
       <c r="A39" s="7">
         <v>4.99</v>
       </c>
@@ -2297,40 +2514,48 @@
       <c r="C39" s="9">
         <v>10638</v>
       </c>
-      <c r="E39" s="7">
+      <c r="D39">
+        <f>AVERAGE(A27:A33)</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(C27:C33)</f>
+        <v>9885</v>
+      </c>
+      <c r="I39" s="7">
         <v>11.49</v>
-      </c>
-      <c r="F39" s="8">
-        <v>7</v>
-      </c>
-      <c r="G39" s="9">
-        <v>12012</v>
-      </c>
-      <c r="I39" s="7">
-        <v>11.53</v>
       </c>
       <c r="J39" s="8">
         <v>7</v>
       </c>
       <c r="K39" s="9">
-        <v>9029</v>
+        <v>12012</v>
       </c>
       <c r="M39" s="7">
-        <v>14.32</v>
+        <v>11.53</v>
       </c>
       <c r="N39" s="8">
         <v>7</v>
       </c>
       <c r="O39" s="9">
+        <v>9029</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>14.32</v>
+      </c>
+      <c r="R39" s="8">
+        <v>7</v>
+      </c>
+      <c r="S39" s="9">
         <v>8639</v>
       </c>
-      <c r="V39" s="10"/>
-      <c r="W39" s="11">
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="11">
         <v>8</v>
       </c>
-      <c r="X39" s="12"/>
-    </row>
-    <row r="40" spans="1:24" ht="16" thickBot="1">
+      <c r="AB39" s="12"/>
+    </row>
+    <row r="40" spans="1:28" ht="16" thickBot="1">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -2340,832 +2565,841 @@
       <c r="C40" s="12">
         <v>10340</v>
       </c>
-      <c r="E40" s="10">
+      <c r="D40">
+        <f>AVERAGE(A34:A40)</f>
+        <v>4.8466666666666667</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(C35:C40)</f>
+        <v>9706.6666666666661</v>
+      </c>
+      <c r="I40" s="10">
         <v>11.85</v>
-      </c>
-      <c r="F40" s="11">
-        <v>8</v>
-      </c>
-      <c r="G40" s="12">
-        <v>11695</v>
-      </c>
-      <c r="I40" s="10">
-        <v>11.69</v>
       </c>
       <c r="J40" s="11">
         <v>8</v>
       </c>
       <c r="K40" s="12">
-        <v>9132</v>
+        <v>11695</v>
       </c>
       <c r="M40" s="10">
-        <v>14.65</v>
+        <v>11.69</v>
       </c>
       <c r="N40" s="11">
         <v>8</v>
       </c>
       <c r="O40" s="12">
+        <v>9132</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>14.65</v>
+      </c>
+      <c r="R40" s="11">
+        <v>8</v>
+      </c>
+      <c r="S40" s="12">
         <v>8403</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" thickBot="1">
-      <c r="J42" t="s">
+    <row r="42" spans="1:28" ht="16" thickBot="1">
+      <c r="N42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="21" thickBot="1">
-      <c r="I43" s="16" t="s">
+    <row r="43" spans="1:28" ht="21" thickBot="1">
+      <c r="M43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="N43" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="O43" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
-      <c r="I44" s="7">
+    <row r="44" spans="1:28">
+      <c r="M44" s="7">
         <v>3.83</v>
       </c>
-      <c r="J44" s="8">
+      <c r="N44" s="8">
         <v>4</v>
       </c>
-      <c r="K44" s="9">
+      <c r="O44" s="9">
         <v>9013</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
-      <c r="I45" s="7">
+    <row r="45" spans="1:28">
+      <c r="M45" s="7">
         <v>3.85</v>
       </c>
-      <c r="J45" s="8">
+      <c r="N45" s="8">
         <v>4.5</v>
       </c>
-      <c r="K45" s="9">
+      <c r="O45" s="9">
         <v>9828</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
-      <c r="I46" s="7">
+    <row r="46" spans="1:28">
+      <c r="M46" s="7">
         <v>3.89</v>
       </c>
-      <c r="J46" s="8">
-        <v>5</v>
-      </c>
-      <c r="K46" s="9">
+      <c r="N46" s="8">
+        <v>5</v>
+      </c>
+      <c r="O46" s="9">
         <v>9780</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
-      <c r="I47" s="7">
+    <row r="47" spans="1:28">
+      <c r="M47" s="7">
         <v>4</v>
       </c>
-      <c r="J47" s="8">
+      <c r="N47" s="8">
         <v>5.5</v>
       </c>
-      <c r="K47" s="9">
+      <c r="O47" s="9">
         <v>11662</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
-      <c r="I48" s="7">
+    <row r="48" spans="1:28">
+      <c r="M48" s="7">
         <v>3.96</v>
       </c>
-      <c r="J48" s="8">
-        <v>6</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="N48" s="8">
+        <v>6</v>
+      </c>
+      <c r="O48" s="9">
         <v>9552</v>
       </c>
     </row>
-    <row r="49" spans="8:11">
-      <c r="I49" s="7">
+    <row r="49" spans="12:15">
+      <c r="M49" s="7">
         <v>3.97</v>
       </c>
-      <c r="J49" s="8">
+      <c r="N49" s="8">
         <v>6.5</v>
       </c>
-      <c r="K49" s="9">
+      <c r="O49" s="9">
         <v>10447</v>
       </c>
     </row>
-    <row r="50" spans="8:11" ht="16" thickBot="1">
-      <c r="I50" s="10">
+    <row r="50" spans="12:15" ht="16" thickBot="1">
+      <c r="M50" s="10">
         <v>3.8</v>
       </c>
-      <c r="J50" s="11">
+      <c r="N50" s="11">
         <v>7</v>
       </c>
-      <c r="K50" s="12">
+      <c r="O50" s="12">
         <v>10371</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
-      <c r="H51" t="s">
+    <row r="51" spans="12:15">
+      <c r="L51" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="7">
+      <c r="M51" s="7">
         <v>4.66</v>
       </c>
-      <c r="J51" s="8">
+      <c r="N51" s="8">
         <v>4</v>
       </c>
-      <c r="K51" s="9">
+      <c r="O51" s="9">
         <v>9860</v>
       </c>
     </row>
-    <row r="52" spans="8:11">
-      <c r="I52" s="7">
+    <row r="52" spans="12:15">
+      <c r="M52" s="7">
         <v>5.07</v>
       </c>
-      <c r="J52" s="8">
+      <c r="N52" s="8">
         <v>4.5</v>
       </c>
-      <c r="K52" s="9">
+      <c r="O52" s="9">
         <v>9780</v>
       </c>
     </row>
-    <row r="53" spans="8:11">
-      <c r="I53" s="7">
+    <row r="53" spans="12:15">
+      <c r="M53" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J53" s="8">
-        <v>5</v>
-      </c>
-      <c r="K53" s="9">
+      <c r="N53" s="8">
+        <v>5</v>
+      </c>
+      <c r="O53" s="9">
         <v>9569</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
-      <c r="I54" s="7">
+    <row r="54" spans="12:15">
+      <c r="M54" s="7">
         <v>4.6399999999999997</v>
       </c>
-      <c r="J54" s="8">
+      <c r="N54" s="8">
         <v>5.5</v>
       </c>
-      <c r="K54" s="9">
+      <c r="O54" s="9">
         <v>9238</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
-      <c r="I55" s="7">
+    <row r="55" spans="12:15">
+      <c r="M55" s="7">
         <v>4.55</v>
       </c>
-      <c r="J55" s="8">
-        <v>6</v>
-      </c>
-      <c r="K55" s="9">
+      <c r="N55" s="8">
+        <v>6</v>
+      </c>
+      <c r="O55" s="9">
         <v>9501</v>
       </c>
     </row>
-    <row r="56" spans="8:11">
-      <c r="I56" s="7">
+    <row r="56" spans="12:15">
+      <c r="M56" s="7">
         <v>4.59</v>
       </c>
-      <c r="J56" s="8">
+      <c r="N56" s="8">
         <v>6.5</v>
       </c>
-      <c r="K56" s="9">
+      <c r="O56" s="9">
         <v>9099</v>
       </c>
     </row>
-    <row r="57" spans="8:11" ht="16" thickBot="1">
-      <c r="I57" s="10">
+    <row r="57" spans="12:15" ht="16" thickBot="1">
+      <c r="M57" s="10">
         <v>4.75</v>
       </c>
-      <c r="J57" s="11">
+      <c r="N57" s="11">
         <v>7</v>
       </c>
-      <c r="K57" s="12">
+      <c r="O57" s="12">
         <v>9287</v>
       </c>
     </row>
-    <row r="58" spans="8:11">
-      <c r="H58" t="s">
+    <row r="58" spans="12:15">
+      <c r="L58" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="7">
+      <c r="M58" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J58" s="8">
+      <c r="N58" s="8">
         <v>4</v>
       </c>
-      <c r="K58" s="9">
+      <c r="O58" s="9">
         <v>9909</v>
       </c>
     </row>
-    <row r="59" spans="8:11">
-      <c r="I59" s="7">
+    <row r="59" spans="12:15">
+      <c r="M59" s="7">
         <v>4.63</v>
       </c>
-      <c r="J59" s="8">
+      <c r="N59" s="8">
         <v>4.5</v>
       </c>
-      <c r="K59" s="9">
+      <c r="O59" s="9">
         <v>10032</v>
       </c>
     </row>
-    <row r="60" spans="8:11">
-      <c r="I60" s="7">
+    <row r="60" spans="12:15">
+      <c r="M60" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J60" s="8">
-        <v>5</v>
-      </c>
-      <c r="K60" s="9">
+      <c r="N60" s="8">
+        <v>5</v>
+      </c>
+      <c r="O60" s="9">
         <v>9029</v>
       </c>
     </row>
-    <row r="61" spans="8:11">
-      <c r="I61" s="7">
+    <row r="61" spans="12:15">
+      <c r="M61" s="7">
         <v>5.19</v>
       </c>
-      <c r="J61" s="8">
+      <c r="N61" s="8">
         <v>5.5</v>
       </c>
-      <c r="K61" s="9">
+      <c r="O61" s="9">
         <v>9784</v>
       </c>
     </row>
-    <row r="62" spans="8:11">
-      <c r="I62" s="7">
+    <row r="62" spans="12:15">
+      <c r="M62" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J62" s="8">
-        <v>6</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11">
-      <c r="I63" s="7">
+      <c r="N62" s="8">
+        <v>6</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="12:15">
+      <c r="M63" s="7">
         <v>4.67</v>
       </c>
-      <c r="J63" s="8">
+      <c r="N63" s="8">
         <v>6.5</v>
       </c>
-      <c r="K63" s="9">
+      <c r="O63" s="9">
         <v>9756</v>
       </c>
     </row>
-    <row r="64" spans="8:11" ht="16" thickBot="1">
-      <c r="I64" s="10">
+    <row r="64" spans="12:15" ht="16" thickBot="1">
+      <c r="M64" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J64" s="11">
+      <c r="N64" s="11">
         <v>7</v>
       </c>
-      <c r="K64" s="12">
+      <c r="O64" s="12">
         <v>9434</v>
       </c>
     </row>
-    <row r="65" spans="9:11">
-      <c r="I65" s="7">
+    <row r="65" spans="13:15">
+      <c r="M65" s="7">
         <v>5.35</v>
       </c>
-      <c r="J65" s="8">
+      <c r="N65" s="8">
         <v>4</v>
       </c>
-      <c r="K65" s="9">
+      <c r="O65" s="9">
         <v>9645</v>
       </c>
     </row>
-    <row r="66" spans="9:11">
-      <c r="I66" s="7">
+    <row r="66" spans="13:15">
+      <c r="M66" s="7">
         <v>5.37</v>
       </c>
-      <c r="J66" s="8">
+      <c r="N66" s="8">
         <v>4.5</v>
       </c>
-      <c r="K66" s="9">
+      <c r="O66" s="9">
         <v>10025</v>
       </c>
     </row>
-    <row r="67" spans="9:11">
-      <c r="I67" s="7">
+    <row r="67" spans="13:15">
+      <c r="M67" s="7">
         <v>5.34</v>
       </c>
-      <c r="J67" s="8">
-        <v>5</v>
-      </c>
-      <c r="K67" s="9">
+      <c r="N67" s="8">
+        <v>5</v>
+      </c>
+      <c r="O67" s="9">
         <v>9758</v>
       </c>
     </row>
-    <row r="68" spans="9:11">
-      <c r="I68" s="7">
+    <row r="68" spans="13:15">
+      <c r="M68" s="7">
         <v>5.35</v>
       </c>
-      <c r="J68" s="8">
+      <c r="N68" s="8">
         <v>5.5</v>
       </c>
-      <c r="K68" s="9">
+      <c r="O68" s="9">
         <v>10554</v>
       </c>
     </row>
-    <row r="69" spans="9:11">
-      <c r="I69" s="7">
+    <row r="69" spans="13:15">
+      <c r="M69" s="7">
         <v>5.61</v>
       </c>
-      <c r="J69" s="8">
-        <v>6</v>
-      </c>
-      <c r="K69" s="9">
+      <c r="N69" s="8">
+        <v>6</v>
+      </c>
+      <c r="O69" s="9">
         <v>9546</v>
       </c>
     </row>
-    <row r="70" spans="9:11">
-      <c r="I70" s="7">
+    <row r="70" spans="13:15">
+      <c r="M70" s="7">
         <v>5.17</v>
       </c>
-      <c r="J70" s="8">
+      <c r="N70" s="8">
         <v>6.5</v>
       </c>
-      <c r="K70" s="9">
+      <c r="O70" s="9">
         <v>9961</v>
       </c>
     </row>
-    <row r="71" spans="9:11" ht="16" thickBot="1">
-      <c r="I71" s="10">
+    <row r="71" spans="13:15" ht="16" thickBot="1">
+      <c r="M71" s="10">
         <v>5.36</v>
       </c>
-      <c r="J71" s="11">
+      <c r="N71" s="11">
         <v>7</v>
       </c>
-      <c r="K71" s="12">
+      <c r="O71" s="12">
         <v>9307</v>
       </c>
     </row>
-    <row r="72" spans="9:11">
-      <c r="I72" s="7">
+    <row r="72" spans="13:15">
+      <c r="M72" s="7">
         <v>6.1</v>
       </c>
-      <c r="J72" s="8">
+      <c r="N72" s="8">
         <v>4</v>
       </c>
-      <c r="K72" s="9">
+      <c r="O72" s="9">
         <v>8877</v>
       </c>
     </row>
-    <row r="73" spans="9:11">
-      <c r="I73" s="7">
+    <row r="73" spans="13:15">
+      <c r="M73" s="7">
         <v>5.98</v>
       </c>
-      <c r="J73" s="8">
+      <c r="N73" s="8">
         <v>4.5</v>
       </c>
-      <c r="K73" s="9">
+      <c r="O73" s="9">
         <v>9412</v>
       </c>
     </row>
-    <row r="74" spans="9:11">
-      <c r="I74" s="7">
+    <row r="74" spans="13:15">
+      <c r="M74" s="7">
         <v>6.09</v>
       </c>
-      <c r="J74" s="8">
-        <v>5</v>
-      </c>
-      <c r="K74" s="9">
+      <c r="N74" s="8">
+        <v>5</v>
+      </c>
+      <c r="O74" s="9">
         <v>9615</v>
       </c>
     </row>
-    <row r="75" spans="9:11">
-      <c r="I75" s="7">
+    <row r="75" spans="13:15">
+      <c r="M75" s="7">
         <v>6.03</v>
       </c>
-      <c r="J75" s="8">
+      <c r="N75" s="8">
         <v>5.5</v>
       </c>
-      <c r="K75" s="9">
+      <c r="O75" s="9">
         <v>9350</v>
       </c>
     </row>
-    <row r="76" spans="9:11">
-      <c r="I76" s="7">
+    <row r="76" spans="13:15">
+      <c r="M76" s="7">
         <v>6.76</v>
       </c>
-      <c r="J76" s="8">
-        <v>6</v>
-      </c>
-      <c r="K76" s="9">
+      <c r="N76" s="8">
+        <v>6</v>
+      </c>
+      <c r="O76" s="9">
         <v>9863</v>
       </c>
     </row>
-    <row r="77" spans="9:11">
-      <c r="I77" s="7">
+    <row r="77" spans="13:15">
+      <c r="M77" s="7">
         <v>6.35</v>
       </c>
-      <c r="J77" s="8">
+      <c r="N77" s="8">
         <v>6.5</v>
       </c>
-      <c r="K77" s="9">
+      <c r="O77" s="9">
         <v>10474</v>
       </c>
     </row>
-    <row r="78" spans="9:11" ht="16" thickBot="1">
-      <c r="I78" s="10">
+    <row r="78" spans="13:15" ht="16" thickBot="1">
+      <c r="M78" s="10">
         <v>6.15</v>
       </c>
-      <c r="J78" s="11">
+      <c r="N78" s="11">
         <v>7</v>
       </c>
-      <c r="K78" s="12">
+      <c r="O78" s="12">
         <v>9198</v>
       </c>
     </row>
-    <row r="80" spans="9:11" ht="16" thickBot="1">
-      <c r="I80" t="s">
+    <row r="80" spans="13:15" ht="16" thickBot="1">
+      <c r="M80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="9:11" ht="21" thickBot="1">
-      <c r="I81" s="16" t="s">
+    <row r="81" spans="13:15" ht="21" thickBot="1">
+      <c r="M81" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="N81" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K81" s="18" t="s">
+      <c r="O81" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:11">
-      <c r="I82" s="7">
+    <row r="82" spans="13:15">
+      <c r="M82" s="7">
         <v>4.09</v>
       </c>
-      <c r="J82" s="8">
+      <c r="N82" s="8">
         <v>4.8</v>
       </c>
-      <c r="K82" s="9">
+      <c r="O82" s="9">
         <v>9195</v>
       </c>
     </row>
-    <row r="83" spans="9:11">
-      <c r="I83" s="7">
+    <row r="83" spans="13:15">
+      <c r="M83" s="7">
         <v>4.47</v>
       </c>
-      <c r="J83" s="8">
-        <v>5</v>
-      </c>
-      <c r="K83" s="9">
+      <c r="N83" s="8">
+        <v>5</v>
+      </c>
+      <c r="O83" s="9">
         <v>9737</v>
       </c>
     </row>
-    <row r="84" spans="9:11">
-      <c r="I84" s="7">
+    <row r="84" spans="13:15">
+      <c r="M84" s="7">
         <v>4.28</v>
       </c>
-      <c r="J84" s="8">
+      <c r="N84" s="8">
         <v>5.2</v>
       </c>
-      <c r="K84" s="9">
+      <c r="O84" s="9">
         <v>10126</v>
       </c>
     </row>
-    <row r="85" spans="9:11">
-      <c r="I85" s="7">
+    <row r="85" spans="13:15">
+      <c r="M85" s="7">
         <v>3.39</v>
       </c>
-      <c r="J85" s="8">
+      <c r="N85" s="8">
         <v>5.4</v>
       </c>
-      <c r="K85" s="9">
+      <c r="O85" s="9">
         <v>9623</v>
       </c>
     </row>
-    <row r="86" spans="9:11">
-      <c r="I86" s="7">
+    <row r="86" spans="13:15">
+      <c r="M86" s="7">
         <v>4.25</v>
       </c>
-      <c r="J86" s="8">
+      <c r="N86" s="8">
         <v>5.6</v>
       </c>
-      <c r="K86" s="9">
+      <c r="O86" s="9">
         <v>9740</v>
       </c>
     </row>
-    <row r="87" spans="9:11">
-      <c r="I87" s="7">
+    <row r="87" spans="13:15">
+      <c r="M87" s="7">
         <v>4.09</v>
       </c>
-      <c r="J87" s="8">
+      <c r="N87" s="8">
         <v>5.8</v>
       </c>
-      <c r="K87" s="9">
+      <c r="O87" s="9">
         <v>9876</v>
       </c>
     </row>
-    <row r="88" spans="9:11" ht="16" thickBot="1">
-      <c r="I88" s="10">
+    <row r="88" spans="13:15" ht="16" thickBot="1">
+      <c r="M88" s="10">
         <v>3.98</v>
       </c>
-      <c r="J88" s="11">
-        <v>6</v>
-      </c>
-      <c r="K88" s="12">
+      <c r="N88" s="11">
+        <v>6</v>
+      </c>
+      <c r="O88" s="12">
         <v>9262</v>
       </c>
     </row>
-    <row r="89" spans="9:11">
-      <c r="I89" s="7">
+    <row r="89" spans="13:15">
+      <c r="M89" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J89" s="8">
+      <c r="N89" s="8">
         <v>4.8</v>
       </c>
-      <c r="K89" s="9">
+      <c r="O89" s="9">
         <v>9953</v>
       </c>
     </row>
-    <row r="90" spans="9:11">
-      <c r="I90" s="7">
+    <row r="90" spans="13:15">
+      <c r="M90" s="7">
         <v>4.38</v>
       </c>
-      <c r="J90" s="8">
-        <v>5</v>
-      </c>
-      <c r="K90" s="9">
+      <c r="N90" s="8">
+        <v>5</v>
+      </c>
+      <c r="O90" s="9">
         <v>9761</v>
       </c>
     </row>
-    <row r="91" spans="9:11">
-      <c r="I91" s="7">
+    <row r="91" spans="13:15">
+      <c r="M91" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J91" s="8">
+      <c r="N91" s="8">
         <v>5.2</v>
       </c>
-      <c r="K91" s="9">
+      <c r="O91" s="9">
         <v>9389</v>
       </c>
     </row>
-    <row r="92" spans="9:11">
-      <c r="I92" s="7">
+    <row r="92" spans="13:15">
+      <c r="M92" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J92" s="8">
+      <c r="N92" s="8">
         <v>5.4</v>
       </c>
-      <c r="K92" s="9">
+      <c r="O92" s="9">
         <v>10582</v>
       </c>
     </row>
-    <row r="93" spans="9:11">
-      <c r="I93" s="7">
+    <row r="93" spans="13:15">
+      <c r="M93" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J93" s="8">
+      <c r="N93" s="8">
         <v>5.6</v>
       </c>
-      <c r="K93" s="9">
+      <c r="O93" s="9">
         <v>9661</v>
       </c>
     </row>
-    <row r="94" spans="9:11">
-      <c r="I94" s="7">
+    <row r="94" spans="13:15">
+      <c r="M94" s="7">
         <v>4.53</v>
       </c>
-      <c r="J94" s="8">
+      <c r="N94" s="8">
         <v>5.8</v>
       </c>
-      <c r="K94" s="9">
+      <c r="O94" s="9">
         <v>9625</v>
       </c>
     </row>
-    <row r="95" spans="9:11" ht="16" thickBot="1">
-      <c r="I95" s="10">
+    <row r="95" spans="13:15" ht="16" thickBot="1">
+      <c r="M95" s="10">
         <v>4.2</v>
       </c>
-      <c r="J95" s="11">
-        <v>6</v>
-      </c>
-      <c r="K95" s="12">
+      <c r="N95" s="11">
+        <v>6</v>
+      </c>
+      <c r="O95" s="12">
         <v>9183</v>
       </c>
     </row>
-    <row r="96" spans="9:11">
-      <c r="I96" s="7">
+    <row r="96" spans="13:15">
+      <c r="M96" s="7">
         <v>4.71</v>
       </c>
-      <c r="J96" s="8">
+      <c r="N96" s="8">
         <v>4.8</v>
       </c>
-      <c r="K96" s="9">
+      <c r="O96" s="9">
         <v>9266</v>
       </c>
     </row>
-    <row r="97" spans="9:11">
-      <c r="I97" s="7">
+    <row r="97" spans="13:15">
+      <c r="M97" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J97" s="8">
-        <v>5</v>
-      </c>
-      <c r="K97" s="9">
+      <c r="N97" s="8">
+        <v>5</v>
+      </c>
+      <c r="O97" s="9">
         <v>9569</v>
       </c>
     </row>
-    <row r="98" spans="9:11">
-      <c r="I98" s="7">
+    <row r="98" spans="13:15">
+      <c r="M98" s="7">
         <v>4.9400000000000004</v>
       </c>
-      <c r="J98" s="8">
+      <c r="N98" s="8">
         <v>5.2</v>
       </c>
-      <c r="K98" s="9">
+      <c r="O98" s="9">
         <v>9479</v>
       </c>
     </row>
-    <row r="99" spans="9:11">
-      <c r="I99" s="7">
+    <row r="99" spans="13:15">
+      <c r="M99" s="7">
         <v>4.62</v>
       </c>
-      <c r="J99" s="8">
+      <c r="N99" s="8">
         <v>5.4</v>
       </c>
-      <c r="K99" s="9">
+      <c r="O99" s="9">
         <v>9376</v>
       </c>
     </row>
-    <row r="100" spans="9:11">
-      <c r="I100" s="7">
+    <row r="100" spans="13:15">
+      <c r="M100" s="7">
         <v>4.92</v>
       </c>
-      <c r="J100" s="8">
+      <c r="N100" s="8">
         <v>5.6</v>
       </c>
-      <c r="K100" s="9">
+      <c r="O100" s="9">
         <v>9184</v>
       </c>
     </row>
-    <row r="101" spans="9:11">
-      <c r="I101" s="7">
+    <row r="101" spans="13:15">
+      <c r="M101" s="7">
         <v>4.8899999999999997</v>
       </c>
-      <c r="J101" s="8">
+      <c r="N101" s="8">
         <v>5.8</v>
       </c>
-      <c r="K101" s="9">
+      <c r="O101" s="9">
         <v>9324</v>
       </c>
     </row>
-    <row r="102" spans="9:11" ht="16" thickBot="1">
-      <c r="I102" s="10">
+    <row r="102" spans="13:15" ht="16" thickBot="1">
+      <c r="M102" s="10">
         <v>4.8600000000000003</v>
       </c>
-      <c r="J102" s="11">
-        <v>6</v>
-      </c>
-      <c r="K102" s="12">
+      <c r="N102" s="11">
+        <v>6</v>
+      </c>
+      <c r="O102" s="12">
         <v>9546</v>
       </c>
     </row>
-    <row r="103" spans="9:11">
-      <c r="I103" s="7">
+    <row r="103" spans="13:15">
+      <c r="M103" s="7">
         <v>5.21</v>
       </c>
-      <c r="J103" s="8">
+      <c r="N103" s="8">
         <v>4.8</v>
       </c>
-      <c r="K103" s="9">
+      <c r="O103" s="9">
         <v>8994</v>
       </c>
     </row>
-    <row r="104" spans="9:11">
-      <c r="I104" s="7">
+    <row r="104" spans="13:15">
+      <c r="M104" s="7">
         <v>4.97</v>
       </c>
-      <c r="J104" s="8">
-        <v>5</v>
-      </c>
-      <c r="K104" s="9">
+      <c r="N104" s="8">
+        <v>5</v>
+      </c>
+      <c r="O104" s="9">
         <v>9111</v>
       </c>
     </row>
-    <row r="105" spans="9:11">
-      <c r="I105" s="7">
+    <row r="105" spans="13:15">
+      <c r="M105" s="7">
         <v>5.31</v>
       </c>
-      <c r="J105" s="8">
+      <c r="N105" s="8">
         <v>5.2</v>
       </c>
-      <c r="K105" s="9">
+      <c r="O105" s="9">
         <v>9595</v>
       </c>
     </row>
-    <row r="106" spans="9:11">
-      <c r="I106" s="7">
+    <row r="106" spans="13:15">
+      <c r="M106" s="7">
         <v>5.21</v>
       </c>
-      <c r="J106" s="8">
+      <c r="N106" s="8">
         <v>5.4</v>
       </c>
-      <c r="K106" s="9">
+      <c r="O106" s="9">
         <v>9324</v>
       </c>
     </row>
-    <row r="107" spans="9:11">
-      <c r="I107" s="7">
+    <row r="107" spans="13:15">
+      <c r="M107" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="J107" s="8">
+      <c r="N107" s="8">
         <v>5.6</v>
       </c>
-      <c r="K107" s="9">
+      <c r="O107" s="9">
         <v>9117</v>
       </c>
     </row>
-    <row r="108" spans="9:11">
-      <c r="I108" s="7">
+    <row r="108" spans="13:15">
+      <c r="M108" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J108" s="8">
+      <c r="N108" s="8">
         <v>5.8</v>
       </c>
-      <c r="K108" s="9">
+      <c r="O108" s="9">
         <v>9153</v>
       </c>
     </row>
-    <row r="109" spans="9:11" ht="16" thickBot="1">
-      <c r="I109" s="10">
+    <row r="109" spans="13:15" ht="16" thickBot="1">
+      <c r="M109" s="10">
         <v>5.26</v>
       </c>
-      <c r="J109" s="11">
-        <v>6</v>
-      </c>
-      <c r="K109" s="12">
+      <c r="N109" s="11">
+        <v>6</v>
+      </c>
+      <c r="O109" s="12">
         <v>9456</v>
       </c>
     </row>
-    <row r="110" spans="9:11">
-      <c r="I110" s="7">
+    <row r="110" spans="13:15">
+      <c r="M110" s="7">
         <v>5.37</v>
       </c>
-      <c r="J110" s="8">
+      <c r="N110" s="8">
         <v>4.8</v>
       </c>
-      <c r="K110" s="9">
+      <c r="O110" s="9">
         <v>9111</v>
       </c>
     </row>
-    <row r="111" spans="9:11">
-      <c r="I111" s="7">
+    <row r="111" spans="13:15">
+      <c r="M111" s="7">
         <v>5.56</v>
       </c>
-      <c r="J111" s="8">
-        <v>5</v>
-      </c>
-      <c r="K111" s="9">
+      <c r="N111" s="8">
+        <v>5</v>
+      </c>
+      <c r="O111" s="9">
         <v>9376</v>
       </c>
     </row>
-    <row r="112" spans="9:11">
-      <c r="I112" s="7">
+    <row r="112" spans="13:15">
+      <c r="M112" s="7">
         <v>5.51</v>
       </c>
-      <c r="J112" s="8">
+      <c r="N112" s="8">
         <v>5.2</v>
       </c>
-      <c r="K112" s="9">
+      <c r="O112" s="9">
         <v>9456</v>
       </c>
     </row>
-    <row r="113" spans="8:11">
-      <c r="H113" t="s">
+    <row r="113" spans="12:15">
+      <c r="L113" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="7"/>
-      <c r="J113" s="8">
+      <c r="M113" s="7"/>
+      <c r="N113" s="8">
         <v>5.4</v>
       </c>
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="I114" s="7"/>
-      <c r="J114" s="8">
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="12:15">
+      <c r="M114" s="7"/>
+      <c r="N114" s="8">
         <v>5.6</v>
       </c>
-      <c r="K114" s="9"/>
-    </row>
-    <row r="115" spans="8:11">
-      <c r="I115" s="7"/>
-      <c r="J115" s="8">
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="12:15">
+      <c r="M115" s="7"/>
+      <c r="N115" s="8">
         <v>5.8</v>
       </c>
-      <c r="K115" s="9"/>
-    </row>
-    <row r="116" spans="8:11" ht="16" thickBot="1">
-      <c r="I116" s="10"/>
-      <c r="J116" s="11">
-        <v>6</v>
-      </c>
-      <c r="K116" s="12"/>
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="12:15" ht="16" thickBot="1">
+      <c r="M116" s="10"/>
+      <c r="N116" s="11">
+        <v>6</v>
+      </c>
+      <c r="O116" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Avg Droplet Spacing (us)</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Avg Droplet Spacing</t>
+  </si>
+  <si>
+    <t>Current Setting: B</t>
+  </si>
+  <si>
+    <t>Plate 7</t>
+  </si>
+  <si>
+    <t>Plate 8</t>
   </si>
 </sst>
 </file>
@@ -357,8 +366,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -417,7 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -436,6 +457,12 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +481,12 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,11 +583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092996392"/>
-        <c:axId val="2092989816"/>
+        <c:axId val="2095132552"/>
+        <c:axId val="2095129656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092996392"/>
+        <c:axId val="2095132552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,12 +597,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092989816"/>
+        <c:crossAx val="2095129656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092989816"/>
+        <c:axId val="2095129656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092996392"/>
+        <c:crossAx val="2095132552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -961,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2602,11 +2635,26 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="16" thickBot="1">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
       <c r="N42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="21" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M43" s="16" t="s">
         <v>2</v>
       </c>
@@ -2618,6 +2666,15 @@
       </c>
     </row>
     <row r="44" spans="1:28">
+      <c r="A44" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C44" s="6">
+        <v>11080</v>
+      </c>
       <c r="M44" s="7">
         <v>3.83</v>
       </c>
@@ -2629,6 +2686,15 @@
       </c>
     </row>
     <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5</v>
+      </c>
+      <c r="C45" s="9">
+        <v>11905</v>
+      </c>
       <c r="M45" s="7">
         <v>3.85</v>
       </c>
@@ -2640,6 +2706,15 @@
       </c>
     </row>
     <row r="46" spans="1:28">
+      <c r="A46" s="7">
+        <v>3.36</v>
+      </c>
+      <c r="B46" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C46" s="9">
+        <v>11049</v>
+      </c>
       <c r="M46" s="7">
         <v>3.89</v>
       </c>
@@ -2651,6 +2726,15 @@
       </c>
     </row>
     <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="B47" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C47" s="9">
+        <v>13333</v>
+      </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
@@ -2662,6 +2746,15 @@
       </c>
     </row>
     <row r="48" spans="1:28">
+      <c r="A48" s="7">
+        <v>3.82</v>
+      </c>
+      <c r="B48" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C48" s="9">
+        <v>11628</v>
+      </c>
       <c r="M48" s="7">
         <v>3.96</v>
       </c>
@@ -2672,7 +2765,16 @@
         <v>9552</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
+    <row r="49" spans="1:15">
+      <c r="A49" s="7">
+        <v>3.42</v>
+      </c>
+      <c r="B49" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C49" s="9">
+        <v>11982</v>
+      </c>
       <c r="M49" s="7">
         <v>3.97</v>
       </c>
@@ -2683,7 +2785,20 @@
         <v>10447</v>
       </c>
     </row>
-    <row r="50" spans="12:15" ht="16" thickBot="1">
+    <row r="50" spans="1:15" ht="16" thickBot="1">
+      <c r="A50" s="10">
+        <v>3.23</v>
+      </c>
+      <c r="B50" s="11">
+        <v>6</v>
+      </c>
+      <c r="C50" s="12">
+        <v>13841</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(A44:A50)</f>
+        <v>3.5314285714285716</v>
+      </c>
       <c r="M50" s="10">
         <v>3.8</v>
       </c>
@@ -2694,7 +2809,16 @@
         <v>10371</v>
       </c>
     </row>
-    <row r="51" spans="12:15">
+    <row r="51" spans="1:15">
+      <c r="A51" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C51" s="9">
+        <v>14870</v>
+      </c>
       <c r="L51" t="s">
         <v>13</v>
       </c>
@@ -2708,7 +2832,16 @@
         <v>9860</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="1:15">
+      <c r="A52" s="7">
+        <v>3.86</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5</v>
+      </c>
+      <c r="C52" s="9">
+        <v>11331</v>
+      </c>
       <c r="M52" s="7">
         <v>5.07</v>
       </c>
@@ -2719,7 +2852,16 @@
         <v>9780</v>
       </c>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="1:15">
+      <c r="A53" s="7">
+        <v>3.74</v>
+      </c>
+      <c r="B53" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C53" s="9">
+        <v>31008</v>
+      </c>
       <c r="M53" s="7">
         <v>4.6100000000000003</v>
       </c>
@@ -2730,7 +2872,16 @@
         <v>9569</v>
       </c>
     </row>
-    <row r="54" spans="12:15">
+    <row r="54" spans="1:15">
+      <c r="A54" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="B54" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C54" s="9">
+        <v>52658</v>
+      </c>
       <c r="M54" s="7">
         <v>4.6399999999999997</v>
       </c>
@@ -2741,7 +2892,16 @@
         <v>9238</v>
       </c>
     </row>
-    <row r="55" spans="12:15">
+    <row r="55" spans="1:15">
+      <c r="A55" s="7">
+        <v>3.91</v>
+      </c>
+      <c r="B55" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C55" s="9">
+        <v>13699</v>
+      </c>
       <c r="M55" s="7">
         <v>4.55</v>
       </c>
@@ -2752,7 +2912,16 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="56" spans="12:15">
+    <row r="56" spans="1:15">
+      <c r="A56" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C56" s="9">
+        <v>11461</v>
+      </c>
       <c r="M56" s="7">
         <v>4.59</v>
       </c>
@@ -2763,7 +2932,20 @@
         <v>9099</v>
       </c>
     </row>
-    <row r="57" spans="12:15" ht="16" thickBot="1">
+    <row r="57" spans="1:15" ht="16" thickBot="1">
+      <c r="A57" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="B57" s="11">
+        <v>6</v>
+      </c>
+      <c r="C57" s="12">
+        <v>10959</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(A51:A57)</f>
+        <v>3.8914285714285719</v>
+      </c>
       <c r="M57" s="10">
         <v>4.75</v>
       </c>
@@ -2774,7 +2956,16 @@
         <v>9287</v>
       </c>
     </row>
-    <row r="58" spans="12:15">
+    <row r="58" spans="1:15">
+      <c r="A58" s="7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C58" s="9">
+        <v>12541</v>
+      </c>
       <c r="L58" t="s">
         <v>13</v>
       </c>
@@ -2788,7 +2979,16 @@
         <v>9909</v>
       </c>
     </row>
-    <row r="59" spans="12:15">
+    <row r="59" spans="1:15">
+      <c r="A59" s="7">
+        <v>4</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>16453</v>
+      </c>
       <c r="M59" s="7">
         <v>4.63</v>
       </c>
@@ -2799,7 +2999,16 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="60" spans="12:15">
+    <row r="60" spans="1:15">
+      <c r="A60" s="7">
+        <v>4.09</v>
+      </c>
+      <c r="B60" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C60" s="9">
+        <v>26351</v>
+      </c>
       <c r="M60" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -2810,7 +3019,16 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="61" spans="12:15">
+    <row r="61" spans="1:15">
+      <c r="A61" s="7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B61" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C61" s="9">
+        <v>36389</v>
+      </c>
       <c r="M61" s="7">
         <v>5.19</v>
       </c>
@@ -2821,7 +3039,16 @@
         <v>9784</v>
       </c>
     </row>
-    <row r="62" spans="12:15">
+    <row r="62" spans="1:15">
+      <c r="A62" s="7">
+        <v>4.05</v>
+      </c>
+      <c r="B62" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C62" s="9">
+        <v>11507</v>
+      </c>
       <c r="M62" s="7">
         <v>4.5599999999999996</v>
       </c>
@@ -2832,7 +3059,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="12:15">
+    <row r="63" spans="1:15">
+      <c r="A63" s="7">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B63" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C63" s="9">
+        <v>10554</v>
+      </c>
       <c r="M63" s="7">
         <v>4.67</v>
       </c>
@@ -2843,7 +3079,20 @@
         <v>9756</v>
       </c>
     </row>
-    <row r="64" spans="12:15" ht="16" thickBot="1">
+    <row r="64" spans="1:15" ht="16" thickBot="1">
+      <c r="A64" s="13">
+        <v>4</v>
+      </c>
+      <c r="B64" s="11">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15">
+        <v>10811</v>
+      </c>
+      <c r="D64">
+        <f>AVERAGE(A58:A64)</f>
+        <v>4.088571428571429</v>
+      </c>
       <c r="M64" s="10">
         <v>4.6500000000000004</v>
       </c>
@@ -2854,7 +3103,16 @@
         <v>9434</v>
       </c>
     </row>
-    <row r="65" spans="13:15">
+    <row r="65" spans="1:15">
+      <c r="A65" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C65" s="6">
+        <v>11782</v>
+      </c>
       <c r="M65" s="7">
         <v>5.35</v>
       </c>
@@ -2865,7 +3123,16 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="66" spans="13:15">
+    <row r="66" spans="1:15">
+      <c r="A66" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="B66" s="8">
+        <v>5</v>
+      </c>
+      <c r="C66" s="9">
+        <v>9593</v>
+      </c>
       <c r="M66" s="7">
         <v>5.37</v>
       </c>
@@ -2876,7 +3143,16 @@
         <v>10025</v>
       </c>
     </row>
-    <row r="67" spans="13:15">
+    <row r="67" spans="1:15">
+      <c r="A67" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B67" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C67" s="9">
+        <v>22745</v>
+      </c>
       <c r="M67" s="7">
         <v>5.34</v>
       </c>
@@ -2887,7 +3163,16 @@
         <v>9758</v>
       </c>
     </row>
-    <row r="68" spans="13:15">
+    <row r="68" spans="1:15">
+      <c r="A68" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="B68" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C68" s="9">
+        <v>31250</v>
+      </c>
       <c r="M68" s="7">
         <v>5.35</v>
       </c>
@@ -2898,7 +3183,16 @@
         <v>10554</v>
       </c>
     </row>
-    <row r="69" spans="13:15">
+    <row r="69" spans="1:15">
+      <c r="A69" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="B69" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C69" s="9">
+        <v>10485</v>
+      </c>
       <c r="M69" s="7">
         <v>5.61</v>
       </c>
@@ -2909,7 +3203,16 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="70" spans="13:15">
+    <row r="70" spans="1:15">
+      <c r="A70" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="B70" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C70" s="9">
+        <v>10372</v>
+      </c>
       <c r="M70" s="7">
         <v>5.17</v>
       </c>
@@ -2920,7 +3223,20 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="71" spans="13:15" ht="16" thickBot="1">
+    <row r="71" spans="1:15" ht="16" thickBot="1">
+      <c r="A71" s="10">
+        <v>4.26</v>
+      </c>
+      <c r="B71" s="11">
+        <v>6</v>
+      </c>
+      <c r="C71" s="12">
+        <v>9200</v>
+      </c>
+      <c r="D71">
+        <f>AVERAGE(A65:A71)</f>
+        <v>4.3985714285714286</v>
+      </c>
       <c r="M71" s="10">
         <v>5.36</v>
       </c>
@@ -2931,7 +3247,16 @@
         <v>9307</v>
       </c>
     </row>
-    <row r="72" spans="13:15">
+    <row r="72" spans="1:15">
+      <c r="A72" s="7">
+        <v>4.78</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C72" s="9">
+        <v>11029</v>
+      </c>
       <c r="M72" s="7">
         <v>6.1</v>
       </c>
@@ -2942,7 +3267,16 @@
         <v>8877</v>
       </c>
     </row>
-    <row r="73" spans="13:15">
+    <row r="73" spans="1:15">
+      <c r="A73" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="B73" s="8">
+        <v>5</v>
+      </c>
+      <c r="C73" s="9">
+        <v>9876</v>
+      </c>
       <c r="M73" s="7">
         <v>5.98</v>
       </c>
@@ -2953,7 +3287,16 @@
         <v>9412</v>
       </c>
     </row>
-    <row r="74" spans="13:15">
+    <row r="74" spans="1:15">
+      <c r="A74" s="7">
+        <v>4.53</v>
+      </c>
+      <c r="B74" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C74" s="9">
+        <v>34810</v>
+      </c>
       <c r="M74" s="7">
         <v>6.09</v>
       </c>
@@ -2964,7 +3307,16 @@
         <v>9615</v>
       </c>
     </row>
-    <row r="75" spans="13:15">
+    <row r="75" spans="1:15">
+      <c r="A75" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="B75" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C75" s="9">
+        <v>9306</v>
+      </c>
       <c r="M75" s="7">
         <v>6.03</v>
       </c>
@@ -2975,7 +3327,16 @@
         <v>9350</v>
       </c>
     </row>
-    <row r="76" spans="13:15">
+    <row r="76" spans="1:15">
+      <c r="A76" s="7">
+        <v>4.55</v>
+      </c>
+      <c r="B76" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C76" s="9">
+        <v>9174</v>
+      </c>
       <c r="M76" s="7">
         <v>6.76</v>
       </c>
@@ -2986,7 +3347,16 @@
         <v>9863</v>
       </c>
     </row>
-    <row r="77" spans="13:15">
+    <row r="77" spans="1:15">
+      <c r="A77" s="7">
+        <v>4.78</v>
+      </c>
+      <c r="B77" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C77" s="9">
+        <v>9577</v>
+      </c>
       <c r="M77" s="7">
         <v>6.35</v>
       </c>
@@ -2997,7 +3367,20 @@
         <v>10474</v>
       </c>
     </row>
-    <row r="78" spans="13:15" ht="16" thickBot="1">
+    <row r="78" spans="1:15" ht="16" thickBot="1">
+      <c r="A78" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B78" s="11">
+        <v>6</v>
+      </c>
+      <c r="C78" s="12">
+        <v>9053</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(A72:A78)</f>
+        <v>4.67</v>
+      </c>
       <c r="M78" s="10">
         <v>6.15</v>
       </c>
@@ -3008,12 +3391,27 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="80" spans="13:15" ht="16" thickBot="1">
+    <row r="80" spans="1:15" ht="16" thickBot="1">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
       <c r="M80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="13:15" ht="21" thickBot="1">
+    <row r="81" spans="1:15" ht="21" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M81" s="16" t="s">
         <v>2</v>
       </c>
@@ -3024,7 +3422,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="13:15">
+    <row r="82" spans="1:15">
+      <c r="A82" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="B82" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C82" s="6">
+        <v>12579</v>
+      </c>
+      <c r="D82">
+        <v>4.8</v>
+      </c>
       <c r="M82" s="7">
         <v>4.09</v>
       </c>
@@ -3035,7 +3445,16 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="83" spans="13:15">
+    <row r="83" spans="1:15">
+      <c r="A83" s="7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="B83" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C83" s="9">
+        <v>11527</v>
+      </c>
       <c r="M83" s="7">
         <v>4.47</v>
       </c>
@@ -3046,7 +3465,16 @@
         <v>9737</v>
       </c>
     </row>
-    <row r="84" spans="13:15">
+    <row r="84" spans="1:15">
+      <c r="A84" s="7">
+        <v>3.83</v>
+      </c>
+      <c r="B84" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C84" s="9">
+        <v>11730</v>
+      </c>
       <c r="M84" s="7">
         <v>4.28</v>
       </c>
@@ -3057,7 +3485,16 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="85" spans="13:15">
+    <row r="85" spans="1:15">
+      <c r="A85" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="B85" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C85" s="9">
+        <v>11940</v>
+      </c>
       <c r="M85" s="7">
         <v>3.39</v>
       </c>
@@ -3068,7 +3505,16 @@
         <v>9623</v>
       </c>
     </row>
-    <row r="86" spans="13:15">
+    <row r="86" spans="1:15">
+      <c r="A86" s="7">
+        <v>3.91</v>
+      </c>
+      <c r="B86" s="8">
+        <v>6</v>
+      </c>
+      <c r="C86" s="9">
+        <v>12270</v>
+      </c>
       <c r="M86" s="7">
         <v>4.25</v>
       </c>
@@ -3079,7 +3525,16 @@
         <v>9740</v>
       </c>
     </row>
-    <row r="87" spans="13:15">
+    <row r="87" spans="1:15">
+      <c r="A87" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="B87" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C87" s="9">
+        <v>11239</v>
+      </c>
       <c r="M87" s="7">
         <v>4.09</v>
       </c>
@@ -3090,7 +3545,16 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="88" spans="13:15" ht="16" thickBot="1">
+    <row r="88" spans="1:15" ht="16" thickBot="1">
+      <c r="A88" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="B88" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C88" s="12">
+        <v>10702</v>
+      </c>
       <c r="M88" s="10">
         <v>3.98</v>
       </c>
@@ -3101,7 +3565,19 @@
         <v>9262</v>
       </c>
     </row>
-    <row r="89" spans="13:15">
+    <row r="89" spans="1:15">
+      <c r="A89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>5.08</v>
+      </c>
       <c r="M89" s="7">
         <v>4.6100000000000003</v>
       </c>
@@ -3112,7 +3588,16 @@
         <v>9953</v>
       </c>
     </row>
-    <row r="90" spans="13:15">
+    <row r="90" spans="1:15">
+      <c r="A90" s="7">
+        <v>3.94</v>
+      </c>
+      <c r="B90" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C90" s="9">
+        <v>12786</v>
+      </c>
       <c r="M90" s="7">
         <v>4.38</v>
       </c>
@@ -3123,7 +3608,16 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="91" spans="13:15">
+    <row r="91" spans="1:15">
+      <c r="A91" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B91" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C91" s="9">
+        <v>12786</v>
+      </c>
       <c r="M91" s="7">
         <v>4.5599999999999996</v>
       </c>
@@ -3134,7 +3628,16 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="92" spans="13:15">
+    <row r="92" spans="1:15">
+      <c r="A92" s="7">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B92" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C92" s="9">
+        <v>17301</v>
+      </c>
       <c r="M92" s="7">
         <v>4.7699999999999996</v>
       </c>
@@ -3145,7 +3648,16 @@
         <v>10582</v>
       </c>
     </row>
-    <row r="93" spans="13:15">
+    <row r="93" spans="1:15">
+      <c r="A93" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="B93" s="8">
+        <v>6</v>
+      </c>
+      <c r="C93" s="9">
+        <v>25190</v>
+      </c>
       <c r="M93" s="7">
         <v>4.5599999999999996</v>
       </c>
@@ -3156,7 +3668,16 @@
         <v>9661</v>
       </c>
     </row>
-    <row r="94" spans="13:15">
+    <row r="94" spans="1:15">
+      <c r="A94" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="B94" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C94" s="9">
+        <v>25994</v>
+      </c>
       <c r="M94" s="7">
         <v>4.53</v>
       </c>
@@ -3167,7 +3688,16 @@
         <v>9625</v>
       </c>
     </row>
-    <row r="95" spans="13:15" ht="16" thickBot="1">
+    <row r="95" spans="1:15" ht="16" thickBot="1">
+      <c r="A95" s="10">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B95" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C95" s="12">
+        <v>11730</v>
+      </c>
       <c r="M95" s="10">
         <v>4.2</v>
       </c>
@@ -3178,7 +3708,19 @@
         <v>9183</v>
       </c>
     </row>
-    <row r="96" spans="13:15">
+    <row r="96" spans="1:15">
+      <c r="A96" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="B96" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C96" s="9">
+        <v>12820</v>
+      </c>
+      <c r="D96">
+        <v>5.36</v>
+      </c>
       <c r="M96" s="7">
         <v>4.71</v>
       </c>
@@ -3189,7 +3731,16 @@
         <v>9266</v>
       </c>
     </row>
-    <row r="97" spans="13:15">
+    <row r="97" spans="1:15">
+      <c r="A97" s="7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="B97" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C97" s="9">
+        <v>27423</v>
+      </c>
       <c r="M97" s="7">
         <v>4.6100000000000003</v>
       </c>
@@ -3200,7 +3751,16 @@
         <v>9569</v>
       </c>
     </row>
-    <row r="98" spans="13:15">
+    <row r="98" spans="1:15">
+      <c r="A98" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="B98" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C98" s="9">
+        <v>33640</v>
+      </c>
       <c r="M98" s="7">
         <v>4.9400000000000004</v>
       </c>
@@ -3211,7 +3771,16 @@
         <v>9479</v>
       </c>
     </row>
-    <row r="99" spans="13:15">
+    <row r="99" spans="1:15">
+      <c r="A99" s="7">
+        <v>3.98</v>
+      </c>
+      <c r="B99" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C99" s="9">
+        <v>10666</v>
+      </c>
       <c r="M99" s="7">
         <v>4.62</v>
       </c>
@@ -3222,7 +3791,16 @@
         <v>9376</v>
       </c>
     </row>
-    <row r="100" spans="13:15">
+    <row r="100" spans="1:15">
+      <c r="A100" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="B100" s="8">
+        <v>6</v>
+      </c>
+      <c r="C100" s="9">
+        <v>11204</v>
+      </c>
       <c r="M100" s="7">
         <v>4.92</v>
       </c>
@@ -3233,7 +3811,16 @@
         <v>9184</v>
       </c>
     </row>
-    <row r="101" spans="13:15">
+    <row r="101" spans="1:15">
+      <c r="A101" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="B101" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C101" s="9">
+        <v>9904</v>
+      </c>
       <c r="M101" s="7">
         <v>4.8899999999999997</v>
       </c>
@@ -3244,7 +3831,16 @@
         <v>9324</v>
       </c>
     </row>
-    <row r="102" spans="13:15" ht="16" thickBot="1">
+    <row r="102" spans="1:15" ht="16" thickBot="1">
+      <c r="A102" s="13">
+        <v>3.99</v>
+      </c>
+      <c r="B102" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C102" s="15">
+        <v>9578</v>
+      </c>
       <c r="M102" s="10">
         <v>4.8600000000000003</v>
       </c>
@@ -3255,7 +3851,19 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="103" spans="13:15">
+    <row r="103" spans="1:15">
+      <c r="A103" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="B103" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C103" s="6">
+        <v>15640</v>
+      </c>
+      <c r="D103">
+        <v>5.64</v>
+      </c>
       <c r="M103" s="7">
         <v>5.21</v>
       </c>
@@ -3266,7 +3874,16 @@
         <v>8994</v>
       </c>
     </row>
-    <row r="104" spans="13:15">
+    <row r="104" spans="1:15">
+      <c r="A104" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="B104" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C104" s="9">
+        <v>10724</v>
+      </c>
       <c r="M104" s="7">
         <v>4.97</v>
       </c>
@@ -3277,7 +3894,16 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="105" spans="13:15">
+    <row r="105" spans="1:15">
+      <c r="A105" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="B105" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C105" s="9">
+        <v>77676</v>
+      </c>
       <c r="M105" s="7">
         <v>5.31</v>
       </c>
@@ -3288,7 +3914,16 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="106" spans="13:15">
+    <row r="106" spans="1:15">
+      <c r="A106" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B106" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C106" s="9">
+        <v>20202</v>
+      </c>
       <c r="M106" s="7">
         <v>5.21</v>
       </c>
@@ -3299,7 +3934,16 @@
         <v>9324</v>
       </c>
     </row>
-    <row r="107" spans="13:15">
+    <row r="107" spans="1:15">
+      <c r="A107" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="B107" s="8">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9">
+        <v>9734</v>
+      </c>
       <c r="M107" s="7">
         <v>5.0199999999999996</v>
       </c>
@@ -3310,7 +3954,16 @@
         <v>9117</v>
       </c>
     </row>
-    <row r="108" spans="13:15">
+    <row r="108" spans="1:15">
+      <c r="A108" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B108" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C108" s="9">
+        <v>10263</v>
+      </c>
       <c r="M108" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -3321,7 +3974,16 @@
         <v>9153</v>
       </c>
     </row>
-    <row r="109" spans="13:15" ht="16" thickBot="1">
+    <row r="109" spans="1:15" ht="16" thickBot="1">
+      <c r="A109" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="B109" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C109" s="12">
+        <v>9266</v>
+      </c>
       <c r="M109" s="10">
         <v>5.26</v>
       </c>
@@ -3332,7 +3994,19 @@
         <v>9456</v>
       </c>
     </row>
-    <row r="110" spans="13:15">
+    <row r="110" spans="1:15">
+      <c r="A110" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="B110" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C110" s="9">
+        <v>12048</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
       <c r="M110" s="7">
         <v>5.37</v>
       </c>
@@ -3343,7 +4017,16 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="111" spans="13:15">
+    <row r="111" spans="1:15">
+      <c r="A111" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="B111" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C111" s="9">
+        <v>10471</v>
+      </c>
       <c r="M111" s="7">
         <v>5.56</v>
       </c>
@@ -3354,7 +4037,16 @@
         <v>9376</v>
       </c>
     </row>
-    <row r="112" spans="13:15">
+    <row r="112" spans="1:15">
+      <c r="A112" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B112" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C112" s="9">
+        <v>31974</v>
+      </c>
       <c r="M112" s="7">
         <v>5.51</v>
       </c>
@@ -3365,7 +4057,16 @@
         <v>9456</v>
       </c>
     </row>
-    <row r="113" spans="12:15">
+    <row r="113" spans="1:15">
+      <c r="A113" s="7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="B113" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C113" s="9">
+        <v>25807</v>
+      </c>
       <c r="L113" t="s">
         <v>14</v>
       </c>
@@ -3375,21 +4076,48 @@
       </c>
       <c r="O113" s="9"/>
     </row>
-    <row r="114" spans="12:15">
+    <row r="114" spans="1:15">
+      <c r="A114" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B114" s="8">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9">
+        <v>9237</v>
+      </c>
       <c r="M114" s="7"/>
       <c r="N114" s="8">
         <v>5.6</v>
       </c>
       <c r="O114" s="9"/>
     </row>
-    <row r="115" spans="12:15">
+    <row r="115" spans="1:15">
+      <c r="A115" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="B115" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C115" s="9">
+        <v>8772</v>
+      </c>
       <c r="M115" s="7"/>
       <c r="N115" s="8">
         <v>5.8</v>
       </c>
       <c r="O115" s="9"/>
     </row>
-    <row r="116" spans="12:15" ht="16" thickBot="1">
+    <row r="116" spans="1:15" ht="16" thickBot="1">
+      <c r="A116" s="10">
+        <v>4.22</v>
+      </c>
+      <c r="B116" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C116" s="12">
+        <v>8991</v>
+      </c>
       <c r="M116" s="10"/>
       <c r="N116" s="11">
         <v>6</v>

--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -366,8 +366,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +440,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -463,6 +465,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +490,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,11 +587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095132552"/>
-        <c:axId val="2095129656"/>
+        <c:axId val="2090025352"/>
+        <c:axId val="2106939512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095132552"/>
+        <c:axId val="2090025352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,12 +601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095129656"/>
+        <c:crossAx val="2106939512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095129656"/>
+        <c:axId val="2106939512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095132552"/>
+        <c:crossAx val="2090025352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -994,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2795,10 +2799,6 @@
       <c r="C50" s="12">
         <v>13841</v>
       </c>
-      <c r="D50">
-        <f>AVERAGE(A44:A50)</f>
-        <v>3.5314285714285716</v>
-      </c>
       <c r="M50" s="10">
         <v>3.8</v>
       </c>
@@ -2942,10 +2942,6 @@
       <c r="C57" s="12">
         <v>10959</v>
       </c>
-      <c r="D57">
-        <f>AVERAGE(A51:A57)</f>
-        <v>3.8914285714285719</v>
-      </c>
       <c r="M57" s="10">
         <v>4.75</v>
       </c>
@@ -3089,10 +3085,6 @@
       <c r="C64" s="15">
         <v>10811</v>
       </c>
-      <c r="D64">
-        <f>AVERAGE(A58:A64)</f>
-        <v>4.088571428571429</v>
-      </c>
       <c r="M64" s="10">
         <v>4.6500000000000004</v>
       </c>
@@ -3233,10 +3225,6 @@
       <c r="C71" s="12">
         <v>9200</v>
       </c>
-      <c r="D71">
-        <f>AVERAGE(A65:A71)</f>
-        <v>4.3985714285714286</v>
-      </c>
       <c r="M71" s="10">
         <v>5.36</v>
       </c>
@@ -3297,6 +3285,14 @@
       <c r="C74" s="9">
         <v>34810</v>
       </c>
+      <c r="D74">
+        <f>AVERAGE(A44:A50)</f>
+        <v>3.5314285714285716</v>
+      </c>
+      <c r="E74">
+        <f>AVERAGE(C44:C50)</f>
+        <v>12116.857142857143</v>
+      </c>
       <c r="M74" s="7">
         <v>6.09</v>
       </c>
@@ -3317,6 +3313,14 @@
       <c r="C75" s="9">
         <v>9306</v>
       </c>
+      <c r="D75">
+        <f>AVERAGE(A51:A57)</f>
+        <v>3.8914285714285719</v>
+      </c>
+      <c r="E75">
+        <f>AVERAGE(C51:C57)</f>
+        <v>20855.142857142859</v>
+      </c>
       <c r="M75" s="7">
         <v>6.03</v>
       </c>
@@ -3337,6 +3341,14 @@
       <c r="C76" s="9">
         <v>9174</v>
       </c>
+      <c r="D76">
+        <f>AVERAGE(A58:A64)</f>
+        <v>4.088571428571429</v>
+      </c>
+      <c r="E76">
+        <f>AVERAGE(C58:C64)</f>
+        <v>17800.857142857141</v>
+      </c>
       <c r="M76" s="7">
         <v>6.76</v>
       </c>
@@ -3357,6 +3369,14 @@
       <c r="C77" s="9">
         <v>9577</v>
       </c>
+      <c r="D77">
+        <f>AVERAGE(A65:A71)</f>
+        <v>4.3985714285714286</v>
+      </c>
+      <c r="E77">
+        <f>AVERAGE(C65:C71)</f>
+        <v>15061</v>
+      </c>
       <c r="M77" s="7">
         <v>6.35</v>
       </c>
@@ -3380,6 +3400,10 @@
       <c r="D78">
         <f>AVERAGE(A72:A78)</f>
         <v>4.67</v>
+      </c>
+      <c r="E78">
+        <f>AVERAGE(C72:C78)</f>
+        <v>13260.714285714286</v>
       </c>
       <c r="M78" s="10">
         <v>6.15</v>

--- a/Testing/Calibration Testing/Calibration Values.xlsx
+++ b/Testing/Calibration Testing/Calibration Values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Avg Droplet Spacing (us)</t>
   </si>
@@ -89,12 +89,33 @@
   <si>
     <t>Plate 8</t>
   </si>
+  <si>
+    <t>CNC File:</t>
+  </si>
+  <si>
+    <t>m102</t>
+  </si>
+  <si>
+    <t>m202</t>
+  </si>
+  <si>
+    <t>m303</t>
+  </si>
+  <si>
+    <t>m403</t>
+  </si>
+  <si>
+    <t>m503</t>
+  </si>
+  <si>
+    <t>Average droplet Spacing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +153,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -365,8 +392,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,8 +475,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -439,8 +502,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -466,6 +533,9 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -491,6 +561,9 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090025352"/>
-        <c:axId val="2106939512"/>
+        <c:axId val="2055517528"/>
+        <c:axId val="2055520424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090025352"/>
+        <c:axId val="2055517528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,12 +674,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106939512"/>
+        <c:crossAx val="2055520424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2106939512"/>
+        <c:axId val="2055520424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,14 +690,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090025352"/>
+        <c:crossAx val="2055517528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -996,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4148,9 +4220,428 @@
       </c>
       <c r="O116" s="12"/>
     </row>
+    <row r="118" spans="1:15" ht="16" thickBot="1"/>
+    <row r="119" spans="1:15" ht="21" thickBot="1">
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B121" s="8">
+        <v>5</v>
+      </c>
+      <c r="C121" s="9">
+        <v>9615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="B122" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C122" s="9">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B123" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C123" s="9">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="B124" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C124" s="9">
+        <v>10343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="7">
+        <v>2.89</v>
+      </c>
+      <c r="B125" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C125" s="9">
+        <v>9592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="16" thickBot="1">
+      <c r="A126" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B126" s="11">
+        <v>6</v>
+      </c>
+      <c r="C126" s="12">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="B127" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C127" s="9">
+        <v>11527</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="B128" s="8">
+        <v>5</v>
+      </c>
+      <c r="C128" s="9">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="B129" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C129" s="9">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="B130" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C130" s="9">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="B131" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C131" s="9">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="B132" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C132" s="9">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" thickBot="1">
+      <c r="A133" s="10">
+        <v>2.54</v>
+      </c>
+      <c r="B133" s="11">
+        <v>6</v>
+      </c>
+      <c r="C133" s="12">
+        <v>9527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="B134" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C134" s="6">
+        <v>9928</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B135" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C135" s="9">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="7">
+        <v>2.38</v>
+      </c>
+      <c r="B136" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="C136" s="9">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="B137" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C137" s="9">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B138" s="8">
+        <v>6</v>
+      </c>
+      <c r="C138" s="9">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="B139" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="C139" s="9">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16" thickBot="1">
+      <c r="A140" s="10">
+        <v>2.44</v>
+      </c>
+      <c r="B140" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="C140" s="12">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="B141" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C141" s="9">
+        <v>11363</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B142" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C142" s="9">
+        <v>9661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="B143" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="C143" s="9">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="B144" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C144" s="9">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="B145" s="8">
+        <v>6</v>
+      </c>
+      <c r="C145" s="9">
+        <v>9237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B146" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="C146" s="9">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16" thickBot="1">
+      <c r="A147" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B147" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="C147" s="12">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B148" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C148" s="9">
+        <v>13119</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="B149" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C149" s="9">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B150" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="C150" s="9">
+        <v>10389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="B151" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C151" s="9">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B152" s="8">
+        <v>6</v>
+      </c>
+      <c r="C152" s="9">
+        <v>10695</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B153" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="C153" s="9">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16" thickBot="1">
+      <c r="A154" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B154" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="C154" s="12">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155">
+        <f>AVERAGE(C121:C154)</f>
+        <v>9871.5882352941171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
